--- a/capiq_data/in_process_data/IQ268799.xlsx
+++ b/capiq_data/in_process_data/IQ268799.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E4AC03-00FA-4CF9-938E-65065BDD052A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE67E44-5467-47CD-AF61-09F987B7B3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"bd13dd75-652b-4b47-944e-1a550d3dbf68"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3d7e0ea1-a84b-406d-a499-2a34bef81e60"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>131.30000000000001</v>
+        <v>54.768000000000001</v>
       </c>
       <c r="D2">
-        <v>1575.5</v>
+        <v>566.67600000000004</v>
       </c>
       <c r="E2">
-        <v>999.6</v>
+        <v>326.93700000000001</v>
       </c>
       <c r="F2">
-        <v>791.8</v>
+        <v>303.58699999999999</v>
       </c>
       <c r="G2">
-        <v>1869.9</v>
+        <v>600.56799999999998</v>
       </c>
       <c r="H2">
-        <v>4872.2</v>
+        <v>1714.011</v>
       </c>
       <c r="I2">
-        <v>349.3</v>
+        <v>146.428</v>
       </c>
       <c r="J2">
-        <v>656.4</v>
+        <v>234.37700000000001</v>
       </c>
       <c r="K2">
-        <v>32.4</v>
+        <v>68.644000000000005</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1324.8</v>
+        <v>532.03399999999999</v>
       </c>
       <c r="O2">
-        <v>2739.2</v>
+        <v>957.00400000000002</v>
       </c>
       <c r="P2">
-        <v>845.6</v>
+        <v>370.96899999999999</v>
       </c>
       <c r="Q2">
-        <v>73.900000000000006</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>26494</v>
+        <v>14250</v>
       </c>
       <c r="T2">
-        <v>2133</v>
+        <v>757.00699999999995</v>
       </c>
       <c r="U2">
-        <v>242.3</v>
+        <v>43.965000000000003</v>
       </c>
       <c r="V2">
-        <v>312.2</v>
+        <v>79.442999999999998</v>
       </c>
       <c r="W2">
-        <v>-35.9</v>
+        <v>-15.143000000000001</v>
       </c>
       <c r="X2">
-        <v>-176.7</v>
+        <v>-58.637</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>131.30000000000001</v>
+        <v>54.768000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>93.6</v>
+        <v>44.414000000000001</v>
       </c>
       <c r="D3">
-        <v>1518.3</v>
+        <v>571.399</v>
       </c>
       <c r="E3">
-        <v>1042.5999999999999</v>
+        <v>358.92500000000001</v>
       </c>
       <c r="F3">
-        <v>748.7</v>
+        <v>298.58800000000002</v>
       </c>
       <c r="G3">
-        <v>1888.9</v>
+        <v>634.16999999999996</v>
       </c>
       <c r="H3">
-        <v>5262.3</v>
+        <v>1761.952</v>
       </c>
       <c r="I3">
-        <v>359.7</v>
+        <v>123.92100000000001</v>
       </c>
       <c r="J3">
-        <v>683.7</v>
+        <v>237.191</v>
       </c>
       <c r="K3">
-        <v>498.9</v>
+        <v>138.93700000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-151.80000000000001</v>
+        <v>-143.23699999999999</v>
       </c>
       <c r="N3">
-        <v>1650.2</v>
+        <v>531.85599999999999</v>
       </c>
       <c r="O3">
-        <v>3047.6</v>
+        <v>967.58199999999999</v>
       </c>
       <c r="P3">
-        <v>1190.0999999999999</v>
+        <v>376.12799999999999</v>
       </c>
       <c r="Q3">
-        <v>-90.9</v>
+        <v>-5.2770000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2214.6999999999998</v>
+        <v>794.37</v>
       </c>
       <c r="U3">
-        <v>151.4</v>
+        <v>38.688000000000002</v>
       </c>
       <c r="V3">
-        <v>56.1</v>
+        <v>54.046999999999997</v>
       </c>
       <c r="W3">
-        <v>-40.6</v>
+        <v>-16.646999999999998</v>
       </c>
       <c r="X3">
-        <v>219.1</v>
+        <v>-16.289000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>93.6</v>
+        <v>44.414000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>125.9</v>
+        <v>48.192999999999998</v>
       </c>
       <c r="D4">
-        <v>1698.8</v>
+        <v>586.98199999999997</v>
       </c>
       <c r="E4">
-        <v>1106.7</v>
+        <v>364.24599999999998</v>
       </c>
       <c r="F4">
-        <v>838</v>
+        <v>304.38400000000001</v>
       </c>
       <c r="G4">
-        <v>1994.2</v>
+        <v>654.79499999999996</v>
       </c>
       <c r="H4">
-        <v>5407.4</v>
+        <v>1777.77</v>
       </c>
       <c r="I4">
-        <v>400.5</v>
+        <v>129.35900000000001</v>
       </c>
       <c r="J4">
-        <v>703.3</v>
+        <v>245.88800000000001</v>
       </c>
       <c r="K4">
-        <v>395.7</v>
+        <v>134.971</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1639.6</v>
+        <v>526.71799999999996</v>
       </c>
       <c r="O4">
-        <v>3065</v>
+        <v>961.08399999999995</v>
       </c>
       <c r="P4">
-        <v>1115.3</v>
+        <v>380.85899999999998</v>
       </c>
       <c r="Q4">
-        <v>11.8</v>
+        <v>14.457000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2342.4</v>
+        <v>816.68600000000004</v>
       </c>
       <c r="U4">
-        <v>163.19999999999999</v>
+        <v>53.145000000000003</v>
       </c>
       <c r="V4">
-        <v>246</v>
+        <v>74.391999999999996</v>
       </c>
       <c r="W4">
-        <v>-40.6</v>
+        <v>-16.597999999999999</v>
       </c>
       <c r="X4">
-        <v>-155.6</v>
+        <v>-15.286</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>125.9</v>
+        <v>48.192999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>154.30000000000001</v>
+        <v>57.261000000000003</v>
       </c>
       <c r="D5">
-        <v>1736.1</v>
+        <v>607.63099999999997</v>
       </c>
       <c r="E5">
-        <v>1143.0999999999999</v>
+        <v>382.72</v>
       </c>
       <c r="F5">
-        <v>862.7</v>
+        <v>318.96199999999999</v>
       </c>
       <c r="G5">
-        <v>2091</v>
+        <v>706.00900000000001</v>
       </c>
       <c r="H5">
-        <v>5505.6</v>
+        <v>1859.9169999999999</v>
       </c>
       <c r="I5">
-        <v>413.4</v>
+        <v>136.136</v>
       </c>
       <c r="J5">
-        <v>700.2</v>
+        <v>246.70599999999999</v>
       </c>
       <c r="K5">
-        <v>329.6</v>
+        <v>133.143</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1617.7</v>
+        <v>549.84699999999998</v>
       </c>
       <c r="O5">
-        <v>3034.7</v>
+        <v>997.35</v>
       </c>
       <c r="P5">
-        <v>1052.0999999999999</v>
+        <v>379.84899999999999</v>
       </c>
       <c r="Q5">
-        <v>44.1</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2470.9</v>
+        <v>862.56700000000001</v>
       </c>
       <c r="U5">
-        <v>207.3</v>
+        <v>89.844999999999999</v>
       </c>
       <c r="V5">
-        <v>238.6</v>
+        <v>107.21</v>
       </c>
       <c r="W5">
-        <v>-41.1</v>
+        <v>-16.574999999999999</v>
       </c>
       <c r="X5">
-        <v>-106.2</v>
+        <v>-28.902999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>154.30000000000001</v>
+        <v>57.261000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>88.7</v>
+        <v>38.302</v>
       </c>
       <c r="D6">
-        <v>1845.3</v>
+        <v>554.69799999999998</v>
       </c>
       <c r="E6">
-        <v>2095.3000000000002</v>
+        <v>514.07399999999996</v>
       </c>
       <c r="F6">
-        <v>882.4</v>
+        <v>277.95600000000002</v>
       </c>
       <c r="G6">
-        <v>5396</v>
+        <v>929.58299999999997</v>
       </c>
       <c r="H6">
-        <v>18184.7</v>
+        <v>2525</v>
       </c>
       <c r="I6">
-        <v>815.7</v>
+        <v>199.77199999999999</v>
       </c>
       <c r="J6">
-        <v>6613.2</v>
+        <v>512.28</v>
       </c>
       <c r="K6">
-        <v>1016.4</v>
+        <v>230.30600000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3166.3</v>
+        <v>827.952</v>
       </c>
       <c r="O6">
-        <v>12443.6</v>
+        <v>1644.6479999999999</v>
       </c>
       <c r="P6">
-        <v>7636.2</v>
+        <v>745.673</v>
       </c>
       <c r="Q6">
-        <v>1636.3</v>
+        <v>-48.052</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>40200</v>
+        <v>19326</v>
       </c>
       <c r="T6">
-        <v>5741.1</v>
+        <v>880.35199999999998</v>
       </c>
       <c r="U6">
-        <v>1843.6</v>
+        <v>41.792999999999999</v>
       </c>
       <c r="V6">
-        <v>144.80000000000001</v>
+        <v>128.83199999999999</v>
       </c>
       <c r="W6">
-        <v>-40.6</v>
+        <v>-16.635999999999999</v>
       </c>
       <c r="X6">
-        <v>2976.5</v>
+        <v>317.99099999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>88.7</v>
+        <v>38.302</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>49.7</v>
+        <v>34.920999999999999</v>
       </c>
       <c r="D7">
-        <v>2810.9</v>
+        <v>786.10900000000004</v>
       </c>
       <c r="E7">
-        <v>2049</v>
+        <v>539.35</v>
       </c>
       <c r="F7">
-        <v>1272.9000000000001</v>
+        <v>396.30500000000001</v>
       </c>
       <c r="G7">
-        <v>3959.8</v>
+        <v>947.24900000000002</v>
       </c>
       <c r="H7">
-        <v>16861.7</v>
+        <v>2545.2060000000001</v>
       </c>
       <c r="I7">
-        <v>805.1</v>
+        <v>194.69800000000001</v>
       </c>
       <c r="J7">
-        <v>4911</v>
+        <v>505.916</v>
       </c>
       <c r="K7">
-        <v>1340</v>
+        <v>211.00899999999999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-291.42700000000002</v>
       </c>
       <c r="M7">
-        <v>-1689.5</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="N7">
-        <v>3506.6</v>
+        <v>830.82500000000005</v>
       </c>
       <c r="O7">
-        <v>11056.6</v>
+        <v>1634.838</v>
       </c>
       <c r="P7">
-        <v>6257.9</v>
+        <v>716.92499999999995</v>
       </c>
       <c r="Q7">
-        <v>-1489.6</v>
+        <v>-11.561</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5805.1</v>
+        <v>910.36800000000005</v>
       </c>
       <c r="U7">
-        <v>354</v>
+        <v>30.231999999999999</v>
       </c>
       <c r="V7">
-        <v>110.5</v>
+        <v>86.828000000000003</v>
       </c>
       <c r="W7">
-        <v>-61.2</v>
+        <v>-17.265000000000001</v>
       </c>
       <c r="X7">
-        <v>-1469.8</v>
+        <v>-35.182000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>49.7</v>
+        <v>34.920999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>184.5</v>
+        <v>51.661000000000001</v>
       </c>
       <c r="D8">
-        <v>2958.7</v>
+        <v>839.23</v>
       </c>
       <c r="E8">
-        <v>2076.9</v>
+        <v>554.78099999999995</v>
       </c>
       <c r="F8">
-        <v>1352.9</v>
+        <v>425.80500000000001</v>
       </c>
       <c r="G8">
-        <v>3908.5</v>
+        <v>996.07100000000003</v>
       </c>
       <c r="H8">
-        <v>16465.400000000001</v>
+        <v>2651.634</v>
       </c>
       <c r="I8">
-        <v>785.1</v>
+        <v>195.15899999999999</v>
       </c>
       <c r="J8">
-        <v>4879.2</v>
+        <v>525.25099999999998</v>
       </c>
       <c r="K8">
-        <v>1439.1</v>
+        <v>174.55500000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3450.7</v>
+        <v>840.13199999999995</v>
       </c>
       <c r="O8">
-        <v>10763.2</v>
+        <v>1679.653</v>
       </c>
       <c r="P8">
-        <v>6324.5</v>
+        <v>699.80600000000004</v>
       </c>
       <c r="Q8">
-        <v>-49.1</v>
+        <v>20.56</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5702.2</v>
+        <v>971.98099999999999</v>
       </c>
       <c r="U8">
-        <v>304.89999999999998</v>
+        <v>50.792000000000002</v>
       </c>
       <c r="V8">
-        <v>100.6</v>
+        <v>133.38900000000001</v>
       </c>
       <c r="W8">
-        <v>-59.7</v>
+        <v>-17.396999999999998</v>
       </c>
       <c r="X8">
-        <v>15.7</v>
+        <v>-60.345999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>184.5</v>
+        <v>51.661000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>238</v>
+        <v>72.081999999999994</v>
       </c>
       <c r="D9">
-        <v>3023.3</v>
+        <v>894.86599999999999</v>
       </c>
       <c r="E9">
-        <v>2199</v>
+        <v>571.40599999999995</v>
       </c>
       <c r="F9">
-        <v>1410.1</v>
+        <v>460.97199999999998</v>
       </c>
       <c r="G9">
-        <v>4072.9</v>
+        <v>1072.627</v>
       </c>
       <c r="H9">
-        <v>16722.8</v>
+        <v>2765.5819999999999</v>
       </c>
       <c r="I9">
-        <v>858.6</v>
+        <v>205.39099999999999</v>
       </c>
       <c r="J9">
-        <v>5386.7</v>
+        <v>539.63599999999997</v>
       </c>
       <c r="K9">
-        <v>625.20000000000005</v>
+        <v>132.35</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2818.7</v>
+        <v>842.34799999999996</v>
       </c>
       <c r="O9">
-        <v>10696.6</v>
+        <v>1712.893</v>
       </c>
       <c r="P9">
-        <v>6017.7</v>
+        <v>671.98599999999999</v>
       </c>
       <c r="Q9">
-        <v>19.100000000000001</v>
+        <v>44.67</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6026.2</v>
+        <v>1052.6890000000001</v>
       </c>
       <c r="U9">
-        <v>324</v>
+        <v>95.462000000000003</v>
       </c>
       <c r="V9">
-        <v>509.7</v>
+        <v>147.74299999999999</v>
       </c>
       <c r="W9">
-        <v>-59.6</v>
+        <v>-17.446000000000002</v>
       </c>
       <c r="X9">
-        <v>-361.7</v>
+        <v>-56.676000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>238</v>
+        <v>72.081999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>231.4</v>
+        <v>51.106000000000002</v>
       </c>
       <c r="D10">
-        <v>3045.8</v>
+        <v>883.38</v>
       </c>
       <c r="E10">
-        <v>2225.1</v>
+        <v>553.154</v>
       </c>
       <c r="F10">
-        <v>1413.2</v>
+        <v>448.32499999999999</v>
       </c>
       <c r="G10">
-        <v>4892</v>
+        <v>1015.937</v>
       </c>
       <c r="H10">
-        <v>17572.3</v>
+        <v>2865.9070000000002</v>
       </c>
       <c r="I10">
-        <v>879.7</v>
+        <v>205.66499999999999</v>
       </c>
       <c r="J10">
-        <v>5736.1</v>
+        <v>539.74300000000005</v>
       </c>
       <c r="K10">
-        <v>638.20000000000005</v>
+        <v>146.947</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3052.7</v>
+        <v>853.82799999999997</v>
       </c>
       <c r="O10">
-        <v>11412.2</v>
+        <v>1766.1559999999999</v>
       </c>
       <c r="P10">
-        <v>6541.9</v>
+        <v>699.84199999999998</v>
       </c>
       <c r="Q10">
-        <v>833.8</v>
+        <v>-46.256999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>40860</v>
+        <v>20417</v>
       </c>
       <c r="T10">
-        <v>6160.1</v>
+        <v>1099.751</v>
       </c>
       <c r="U10">
-        <v>1157.8</v>
+        <v>49.204999999999998</v>
       </c>
       <c r="V10">
-        <v>482.2</v>
+        <v>55.366</v>
       </c>
       <c r="W10">
-        <v>-126.3</v>
+        <v>-17.475000000000001</v>
       </c>
       <c r="X10">
-        <v>422.2</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>231.4</v>
+        <v>51.106000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>159.6</v>
+        <v>55.317999999999998</v>
       </c>
       <c r="D11">
-        <v>2872.1</v>
+        <v>875.85199999999998</v>
       </c>
       <c r="E11">
-        <v>2182.1</v>
+        <v>594.43299999999999</v>
       </c>
       <c r="F11">
-        <v>1334.4</v>
+        <v>445.37</v>
       </c>
       <c r="G11">
-        <v>4603.3999999999996</v>
+        <v>1099.636</v>
       </c>
       <c r="H11">
-        <v>17296.2</v>
+        <v>3010.7089999999998</v>
       </c>
       <c r="I11">
-        <v>845</v>
+        <v>207.303</v>
       </c>
       <c r="J11">
-        <v>5737.1</v>
+        <v>569.29600000000005</v>
       </c>
       <c r="K11">
-        <v>328.7</v>
+        <v>164.23400000000001</v>
       </c>
       <c r="L11">
-        <v>-310</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.7</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="N11">
-        <v>2684.2</v>
+        <v>870.20399999999995</v>
       </c>
       <c r="O11">
-        <v>11063.7</v>
+        <v>1812.777</v>
       </c>
       <c r="P11">
-        <v>6234.2</v>
+        <v>733.53</v>
       </c>
       <c r="Q11">
-        <v>-333.5</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6232.5</v>
+        <v>1197.932</v>
       </c>
       <c r="U11">
-        <v>824.3</v>
+        <v>56.554000000000002</v>
       </c>
       <c r="V11">
-        <v>186</v>
+        <v>64.561000000000007</v>
       </c>
       <c r="W11">
-        <v>-4.5</v>
+        <v>-18.838000000000001</v>
       </c>
       <c r="X11">
-        <v>-293.5</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>159.6</v>
+        <v>55.317999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>213.1</v>
+        <v>67.155000000000001</v>
       </c>
       <c r="D12">
-        <v>3337.8</v>
+        <v>946.73500000000001</v>
       </c>
       <c r="E12">
-        <v>2436.3000000000002</v>
+        <v>644.29399999999998</v>
       </c>
       <c r="F12">
-        <v>1542.8</v>
+        <v>480.00099999999998</v>
       </c>
       <c r="G12">
-        <v>4698.2</v>
+        <v>1139.961</v>
       </c>
       <c r="H12">
-        <v>19654.3</v>
+        <v>3120.9349999999999</v>
       </c>
       <c r="I12">
-        <v>912</v>
+        <v>222.16800000000001</v>
       </c>
       <c r="J12">
-        <v>6635.3</v>
+        <v>601.98099999999999</v>
       </c>
       <c r="K12">
-        <v>704.5</v>
+        <v>97.506</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3245.5</v>
+        <v>870.28399999999999</v>
       </c>
       <c r="O12">
-        <v>12915.6</v>
+        <v>1868.5840000000001</v>
       </c>
       <c r="P12">
-        <v>7508.2</v>
+        <v>699.48699999999997</v>
       </c>
       <c r="Q12">
-        <v>-449.1</v>
+        <v>-25.981999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6738.7</v>
+        <v>1252.3510000000001</v>
       </c>
       <c r="U12">
-        <v>375.2</v>
+        <v>30.571999999999999</v>
       </c>
       <c r="V12">
-        <v>207</v>
+        <v>155.90799999999999</v>
       </c>
       <c r="W12">
-        <v>-67.900000000000006</v>
+        <v>-18.902000000000001</v>
       </c>
       <c r="X12">
-        <v>851.3</v>
+        <v>-130.06100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>213.1</v>
+        <v>67.155000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>308</v>
+        <v>87.438999999999993</v>
       </c>
       <c r="D13">
-        <v>3484</v>
+        <v>982.76599999999996</v>
       </c>
       <c r="E13">
-        <v>2488.9</v>
+        <v>649.84100000000001</v>
       </c>
       <c r="F13">
-        <v>1624.2</v>
+        <v>504.60300000000001</v>
       </c>
       <c r="G13">
-        <v>4796</v>
+        <v>1155.8879999999999</v>
       </c>
       <c r="H13">
-        <v>19613.599999999999</v>
+        <v>3064.8470000000002</v>
       </c>
       <c r="I13">
-        <v>926.6</v>
+        <v>209.52799999999999</v>
       </c>
       <c r="J13">
-        <v>6537.3</v>
+        <v>573.96299999999997</v>
       </c>
       <c r="K13">
-        <v>542.29999999999995</v>
+        <v>75.375</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3200.6</v>
+        <v>869.40099999999995</v>
       </c>
       <c r="O13">
-        <v>12767.7</v>
+        <v>1833.0029999999999</v>
       </c>
       <c r="P13">
-        <v>7250.5</v>
+        <v>649.33799999999997</v>
       </c>
       <c r="Q13">
-        <v>19.2</v>
+        <v>36.39</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6845.9</v>
+        <v>1231.8440000000001</v>
       </c>
       <c r="U13">
-        <v>394.4</v>
+        <v>66.962000000000003</v>
       </c>
       <c r="V13">
-        <v>536.20000000000005</v>
+        <v>178.41300000000001</v>
       </c>
       <c r="W13">
-        <v>-71.2</v>
+        <v>-18.902999999999999</v>
       </c>
       <c r="X13">
-        <v>-363.5</v>
+        <v>-103.92400000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>308</v>
+        <v>87.438999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>287.10000000000002</v>
+        <v>67.436000000000007</v>
       </c>
       <c r="D14">
-        <v>3559.5</v>
+        <v>956.46600000000001</v>
       </c>
       <c r="E14">
-        <v>2568</v>
+        <v>626.00199999999995</v>
       </c>
       <c r="F14">
-        <v>1634</v>
+        <v>486.61200000000002</v>
       </c>
       <c r="G14">
-        <v>4698.3999999999996</v>
+        <v>1150.3399999999999</v>
       </c>
       <c r="H14">
-        <v>19636.5</v>
+        <v>3228.9180000000001</v>
       </c>
       <c r="I14">
-        <v>1021.9</v>
+        <v>212.28700000000001</v>
       </c>
       <c r="J14">
-        <v>6043.5</v>
+        <v>604.44100000000003</v>
       </c>
       <c r="K14">
-        <v>355.7</v>
+        <v>66.25</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3488.7</v>
+        <v>851.94200000000001</v>
       </c>
       <c r="O14">
-        <v>12227.1</v>
+        <v>1933.492</v>
       </c>
       <c r="P14">
-        <v>6904.5</v>
+        <v>674.64400000000001</v>
       </c>
       <c r="Q14">
-        <v>-55.2</v>
+        <v>18.664000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>45415</v>
+        <v>20826</v>
       </c>
       <c r="T14">
-        <v>7409.4</v>
+        <v>1295.4259999999999</v>
       </c>
       <c r="U14">
-        <v>339.2</v>
+        <v>85.626000000000005</v>
       </c>
       <c r="V14">
-        <v>630.6</v>
+        <v>130.31700000000001</v>
       </c>
       <c r="W14">
-        <v>-74.5</v>
+        <v>-18.77</v>
       </c>
       <c r="X14">
-        <v>-486.9</v>
+        <v>-48.49</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>287.10000000000002</v>
+        <v>67.436000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>191</v>
+        <v>66.006</v>
       </c>
       <c r="D15">
-        <v>3336.6</v>
+        <v>979.37099999999998</v>
       </c>
       <c r="E15">
-        <v>2519.6</v>
+        <v>666.10500000000002</v>
       </c>
       <c r="F15">
-        <v>1523.4</v>
+        <v>505.22699999999998</v>
       </c>
       <c r="G15">
-        <v>4703</v>
+        <v>1185.278</v>
       </c>
       <c r="H15">
-        <v>19563.400000000001</v>
+        <v>3451.174</v>
       </c>
       <c r="I15">
-        <v>951.2</v>
+        <v>223.88</v>
       </c>
       <c r="J15">
-        <v>5696.6</v>
+        <v>620.64200000000005</v>
       </c>
       <c r="K15">
-        <v>752.4</v>
+        <v>170.24600000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-101.4</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="N15">
-        <v>3904.4</v>
+        <v>975.09299999999996</v>
       </c>
       <c r="O15">
-        <v>12290.3</v>
+        <v>2105.518</v>
       </c>
       <c r="P15">
-        <v>7204</v>
+        <v>790.88800000000003</v>
       </c>
       <c r="Q15">
-        <v>-38.9</v>
+        <v>-39.304000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7273.1</v>
+        <v>1345.6559999999999</v>
       </c>
       <c r="U15">
-        <v>300.3</v>
+        <v>46.322000000000003</v>
       </c>
       <c r="V15">
-        <v>214.4</v>
+        <v>90.543000000000006</v>
       </c>
       <c r="W15">
-        <v>-85.9</v>
+        <v>-20.596</v>
       </c>
       <c r="X15">
-        <v>-73.099999999999994</v>
+        <v>53.372</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>191</v>
+        <v>66.006</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>311.39999999999998</v>
+        <v>78.293000000000006</v>
       </c>
       <c r="D16">
-        <v>3568.2</v>
+        <v>1042.711</v>
       </c>
       <c r="E16">
-        <v>2637.3</v>
+        <v>676.15800000000002</v>
       </c>
       <c r="F16">
-        <v>1659.9</v>
+        <v>538.08600000000001</v>
       </c>
       <c r="G16">
-        <v>4772.1000000000004</v>
+        <v>1180.606</v>
       </c>
       <c r="H16">
-        <v>19613.8</v>
+        <v>3412.8319999999999</v>
       </c>
       <c r="I16">
-        <v>1004.5</v>
+        <v>226.16399999999999</v>
       </c>
       <c r="J16">
-        <v>5539.1</v>
+        <v>611.38499999999999</v>
       </c>
       <c r="K16">
-        <v>834.8</v>
+        <v>100.976</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3966.9</v>
+        <v>909.43</v>
       </c>
       <c r="O16">
-        <v>12153.7</v>
+        <v>2018.11</v>
       </c>
       <c r="P16">
-        <v>7129.8</v>
+        <v>712.36099999999999</v>
       </c>
       <c r="Q16">
-        <v>-113.3</v>
+        <v>-5.0759999999999996</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7460.1</v>
+        <v>1394.722</v>
       </c>
       <c r="U16">
-        <v>187</v>
+        <v>41.246000000000002</v>
       </c>
       <c r="V16">
-        <v>317.5</v>
+        <v>142.58699999999999</v>
       </c>
       <c r="W16">
-        <v>-86.4</v>
+        <v>-20.588000000000001</v>
       </c>
       <c r="X16">
-        <v>-246.8</v>
+        <v>-80.111000000000004</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>311.39999999999998</v>
+        <v>78.293000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>364.9</v>
+        <v>94.947000000000003</v>
       </c>
       <c r="D17">
-        <v>3694.9</v>
+        <v>1090.316</v>
       </c>
       <c r="E17">
-        <v>2694.4</v>
+        <v>739.05700000000002</v>
       </c>
       <c r="F17">
-        <v>1725.1</v>
+        <v>570.64700000000005</v>
       </c>
       <c r="G17">
-        <v>4871.8</v>
+        <v>1266.5450000000001</v>
       </c>
       <c r="H17">
-        <v>19685.8</v>
+        <v>3549.4119999999998</v>
       </c>
       <c r="I17">
-        <v>1047.3</v>
+        <v>251.92099999999999</v>
       </c>
       <c r="J17">
-        <v>4874</v>
+        <v>611.37800000000004</v>
       </c>
       <c r="K17">
-        <v>667</v>
+        <v>83.311999999999998</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4455</v>
+        <v>967.98800000000006</v>
       </c>
       <c r="O17">
-        <v>11919.5</v>
+        <v>2078.886</v>
       </c>
       <c r="P17">
-        <v>6801.2</v>
+        <v>694.69</v>
       </c>
       <c r="Q17">
-        <v>10.8</v>
+        <v>30.850999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7766.3</v>
+        <v>1470.5260000000001</v>
       </c>
       <c r="U17">
-        <v>197.8</v>
+        <v>72.096999999999994</v>
       </c>
       <c r="V17">
-        <v>613.1</v>
+        <v>183.64699999999999</v>
       </c>
       <c r="W17">
-        <v>-86.6</v>
+        <v>-20.591000000000001</v>
       </c>
       <c r="X17">
-        <v>-393.8</v>
+        <v>-96.436000000000007</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>364.9</v>
+        <v>94.947000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>335.5</v>
+        <v>43.447000000000003</v>
       </c>
       <c r="D18">
-        <v>3680.8</v>
+        <v>1072.5350000000001</v>
       </c>
       <c r="E18">
-        <v>2626.7</v>
+        <v>738.26599999999996</v>
       </c>
       <c r="F18">
-        <v>1707.3</v>
+        <v>537.375</v>
       </c>
       <c r="G18">
-        <v>4853</v>
+        <v>1279.066</v>
       </c>
       <c r="H18">
-        <v>19427.400000000001</v>
+        <v>3716.174</v>
       </c>
       <c r="I18">
-        <v>1162.4000000000001</v>
+        <v>269.56099999999998</v>
       </c>
       <c r="J18">
-        <v>4843.3999999999996</v>
+        <v>645.44500000000005</v>
       </c>
       <c r="K18">
-        <v>949.9</v>
+        <v>50.98</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4367.8999999999996</v>
+        <v>939.54700000000003</v>
       </c>
       <c r="O18">
-        <v>12045.3</v>
+        <v>2118.0329999999999</v>
       </c>
       <c r="P18">
-        <v>6548.2</v>
+        <v>701.577</v>
       </c>
       <c r="Q18">
-        <v>11.8</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>47430</v>
+        <v>21338</v>
       </c>
       <c r="T18">
-        <v>7382.1</v>
+        <v>1598.1410000000001</v>
       </c>
       <c r="U18">
-        <v>209.6</v>
+        <v>71.230999999999995</v>
       </c>
       <c r="V18">
-        <v>670.6</v>
+        <v>154.131</v>
       </c>
       <c r="W18">
-        <v>-85.5</v>
+        <v>-20.643999999999998</v>
       </c>
       <c r="X18">
-        <v>-357.3</v>
+        <v>-70.694000000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>335.5</v>
+        <v>43.447000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>233.4</v>
+        <v>69.426000000000002</v>
       </c>
       <c r="D19">
-        <v>3297.6</v>
+        <v>1069.8800000000001</v>
       </c>
       <c r="E19">
-        <v>2546.9</v>
+        <v>767.85699999999997</v>
       </c>
       <c r="F19">
-        <v>1532.9</v>
+        <v>542.90499999999997</v>
       </c>
       <c r="G19">
-        <v>4921.8</v>
+        <v>1347.008</v>
       </c>
       <c r="H19">
-        <v>19252</v>
+        <v>3798.3339999999998</v>
       </c>
       <c r="I19">
-        <v>950.6</v>
+        <v>257.93299999999999</v>
       </c>
       <c r="J19">
-        <v>5408.7</v>
+        <v>566.63599999999997</v>
       </c>
       <c r="K19">
-        <v>1281.5999999999999</v>
+        <v>276.28199999999998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-375.7</v>
+        <v>-1.5820000000000001</v>
       </c>
       <c r="N19">
-        <v>4121</v>
+        <v>1114.902</v>
       </c>
       <c r="O19">
-        <v>12316</v>
+        <v>2266.7530000000002</v>
       </c>
       <c r="P19">
-        <v>7206.2</v>
+        <v>842.91800000000001</v>
       </c>
       <c r="Q19">
-        <v>28.3</v>
+        <v>12.215999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6936</v>
+        <v>1531.5809999999999</v>
       </c>
       <c r="U19">
-        <v>237.9</v>
+        <v>83.447000000000003</v>
       </c>
       <c r="V19">
-        <v>112.5</v>
+        <v>59.908000000000001</v>
       </c>
       <c r="W19">
-        <v>-99.8</v>
+        <v>-22.59</v>
       </c>
       <c r="X19">
-        <v>85.9</v>
+        <v>33.079000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>233.4</v>
+        <v>69.426000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>302</v>
+        <v>81.400999999999996</v>
       </c>
       <c r="D20">
-        <v>3389.1</v>
+        <v>1158.664</v>
       </c>
       <c r="E20">
-        <v>2494.8000000000002</v>
+        <v>767.61199999999997</v>
       </c>
       <c r="F20">
-        <v>1593.6</v>
+        <v>587.59799999999996</v>
       </c>
       <c r="G20">
-        <v>4971.1000000000004</v>
+        <v>1355.587</v>
       </c>
       <c r="H20">
-        <v>19217.3</v>
+        <v>3730.4830000000002</v>
       </c>
       <c r="I20">
-        <v>961</v>
+        <v>249.43700000000001</v>
       </c>
       <c r="J20">
-        <v>5124.2</v>
+        <v>537.91200000000003</v>
       </c>
       <c r="K20">
-        <v>1394.9</v>
+        <v>230.53</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4446.1000000000004</v>
+        <v>1068.385</v>
       </c>
       <c r="O20">
-        <v>12337.8</v>
+        <v>2177.556</v>
       </c>
       <c r="P20">
-        <v>7309.5</v>
+        <v>768.44200000000001</v>
       </c>
       <c r="Q20">
-        <v>72.7</v>
+        <v>26.576000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6879.5</v>
+        <v>1552.9269999999999</v>
       </c>
       <c r="U20">
-        <v>310.60000000000002</v>
+        <v>110.023</v>
       </c>
       <c r="V20">
-        <v>524.1</v>
+        <v>166.57400000000001</v>
       </c>
       <c r="W20">
-        <v>-102.7</v>
+        <v>-22.44</v>
       </c>
       <c r="X20">
-        <v>-269.89999999999998</v>
+        <v>-62.283000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>302</v>
+        <v>81.400999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>257.8</v>
+        <v>97.957999999999998</v>
       </c>
       <c r="D21">
-        <v>3446.4</v>
+        <v>1164.7729999999999</v>
       </c>
       <c r="E21">
-        <v>2450</v>
+        <v>801.98099999999999</v>
       </c>
       <c r="F21">
-        <v>1650.2</v>
+        <v>591.91099999999994</v>
       </c>
       <c r="G21">
-        <v>4642.3999999999996</v>
+        <v>1447.5650000000001</v>
       </c>
       <c r="H21">
-        <v>18883.3</v>
+        <v>3828.5819999999999</v>
       </c>
       <c r="I21">
-        <v>1034.5</v>
+        <v>264.19600000000003</v>
       </c>
       <c r="J21">
-        <v>5753.7</v>
+        <v>539.01900000000001</v>
       </c>
       <c r="K21">
-        <v>722.4</v>
+        <v>169.529</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3556.6</v>
+        <v>1066.0519999999999</v>
       </c>
       <c r="O21">
-        <v>12040.7</v>
+        <v>2184.252</v>
       </c>
       <c r="P21">
-        <v>6762.8</v>
+        <v>708.548</v>
       </c>
       <c r="Q21">
-        <v>-125.8</v>
+        <v>55.284999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6842.6</v>
+        <v>1644.33</v>
       </c>
       <c r="U21">
-        <v>184.8</v>
+        <v>165.30799999999999</v>
       </c>
       <c r="V21">
-        <v>758.6</v>
+        <v>195.191</v>
       </c>
       <c r="W21">
-        <v>-99.1</v>
+        <v>-22.381</v>
       </c>
       <c r="X21">
-        <v>-638.79999999999995</v>
+        <v>-78.909000000000006</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>257.8</v>
+        <v>97.957999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>208.9</v>
+        <v>70.695999999999998</v>
       </c>
       <c r="D22">
-        <v>3412</v>
+        <v>1141.5150000000001</v>
       </c>
       <c r="E22">
-        <v>2390.1999999999998</v>
+        <v>743.52</v>
       </c>
       <c r="F22">
-        <v>1625.5</v>
+        <v>563.58699999999999</v>
       </c>
       <c r="G22">
-        <v>4447.5</v>
+        <v>1421.6659999999999</v>
       </c>
       <c r="H22">
-        <v>18641.7</v>
+        <v>3796.6280000000002</v>
       </c>
       <c r="I22">
-        <v>1049.5999999999999</v>
+        <v>277.63499999999999</v>
       </c>
       <c r="J22">
-        <v>4265.6000000000004</v>
+        <v>519.37400000000002</v>
       </c>
       <c r="K22">
-        <v>635.9</v>
+        <v>146.72499999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4764.3999999999996</v>
+        <v>1119.357</v>
       </c>
       <c r="O22">
-        <v>11661.3</v>
+        <v>2147.4180000000001</v>
       </c>
       <c r="P22">
-        <v>6470.9</v>
+        <v>746.30100000000004</v>
       </c>
       <c r="Q22">
-        <v>-92</v>
+        <v>-60.93</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>47145</v>
+        <v>22404</v>
       </c>
       <c r="T22">
-        <v>6980.4</v>
+        <v>1649.21</v>
       </c>
       <c r="U22">
-        <v>92.8</v>
+        <v>104.378</v>
       </c>
       <c r="V22">
-        <v>604.6</v>
+        <v>168.46299999999999</v>
       </c>
       <c r="W22">
-        <v>-99.1</v>
+        <v>-22.396000000000001</v>
       </c>
       <c r="X22">
-        <v>-328.1</v>
+        <v>-37.914999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-125.063</v>
       </c>
       <c r="AA22">
-        <v>208.9</v>
+        <v>70.695999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>230.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="D23">
-        <v>3097.4</v>
+        <v>1120.0999999999999</v>
       </c>
       <c r="E23">
-        <v>2248.8000000000002</v>
+        <v>769.69500000000005</v>
       </c>
       <c r="F23">
-        <v>1466</v>
+        <v>567.6</v>
       </c>
       <c r="G23">
-        <v>4194.8999999999996</v>
+        <v>1309.415</v>
       </c>
       <c r="H23">
-        <v>18341.8</v>
+        <v>3748.3150000000001</v>
       </c>
       <c r="I23">
-        <v>986.1</v>
+        <v>266.64400000000001</v>
       </c>
       <c r="J23">
-        <v>5082.8</v>
+        <v>522.38199999999995</v>
       </c>
       <c r="K23">
-        <v>306.10000000000002</v>
+        <v>191.62100000000001</v>
       </c>
       <c r="L23">
-        <v>-329.6</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-125.7</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="N23">
-        <v>4159.5</v>
+        <v>1027.213</v>
       </c>
       <c r="O23">
-        <v>11689.7</v>
+        <v>2059.9549999999999</v>
       </c>
       <c r="P23">
-        <v>6839.4</v>
+        <v>714.00300000000004</v>
       </c>
       <c r="Q23">
-        <v>175.7</v>
+        <v>-41.5</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6652.1</v>
+        <v>1688.36</v>
       </c>
       <c r="U23">
-        <v>268.5</v>
+        <v>62.933999999999997</v>
       </c>
       <c r="V23">
-        <v>472.5</v>
+        <v>-0.8</v>
       </c>
       <c r="W23">
-        <v>-108</v>
+        <v>-25.5</v>
       </c>
       <c r="X23">
-        <v>-145.4</v>
+        <v>-109.5</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>125.1</v>
       </c>
       <c r="AA23">
-        <v>230.8</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>258.39999999999998</v>
+        <v>93.2</v>
       </c>
       <c r="D24">
-        <v>3317.2</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="E24">
-        <v>2318</v>
+        <v>831.76199999999994</v>
       </c>
       <c r="F24">
-        <v>1593.9</v>
+        <v>617.9</v>
       </c>
       <c r="G24">
-        <v>4095.4</v>
+        <v>1418.3689999999999</v>
       </c>
       <c r="H24">
-        <v>18224.599999999999</v>
+        <v>3911.2829999999999</v>
       </c>
       <c r="I24">
-        <v>977.8</v>
+        <v>274.803</v>
       </c>
       <c r="J24">
-        <v>5097</v>
+        <v>544.846</v>
       </c>
       <c r="K24">
-        <v>294.10000000000002</v>
+        <v>262.60500000000002</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4238.3999999999996</v>
+        <v>1141.1590000000001</v>
       </c>
       <c r="O24">
-        <v>11555</v>
+        <v>2213.297</v>
       </c>
       <c r="P24">
-        <v>6846.9</v>
+        <v>807.45100000000002</v>
       </c>
       <c r="Q24">
-        <v>-101.1</v>
+        <v>43</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6669.6</v>
+        <v>1697.9860000000001</v>
       </c>
       <c r="U24">
-        <v>167.4</v>
+        <v>105.88500000000001</v>
       </c>
       <c r="V24">
-        <v>402.3</v>
+        <v>176.9</v>
       </c>
       <c r="W24">
-        <v>-109.6</v>
+        <v>-25.4</v>
       </c>
       <c r="X24">
-        <v>-331.8</v>
+        <v>-52.3</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>258.39999999999998</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>374.1</v>
+        <v>110.3</v>
       </c>
       <c r="D25">
-        <v>3386.1</v>
+        <v>1278.8</v>
       </c>
       <c r="E25">
-        <v>2349.6</v>
+        <v>866.21400000000006</v>
       </c>
       <c r="F25">
-        <v>1648.9</v>
+        <v>653.29999999999995</v>
       </c>
       <c r="G25">
-        <v>4172</v>
+        <v>1406.2909999999999</v>
       </c>
       <c r="H25">
-        <v>18378.8</v>
+        <v>4006.8760000000002</v>
       </c>
       <c r="I25">
-        <v>1022.7</v>
+        <v>310.59699999999998</v>
       </c>
       <c r="J25">
-        <v>5091.3999999999996</v>
+        <v>542.94799999999998</v>
       </c>
       <c r="K25">
-        <v>114.3</v>
+        <v>190.00800000000001</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4174</v>
+        <v>1145.971</v>
       </c>
       <c r="O25">
-        <v>11437</v>
+        <v>2243.7570000000001</v>
       </c>
       <c r="P25">
-        <v>6662.6</v>
+        <v>732.95600000000002</v>
       </c>
       <c r="Q25">
-        <v>13.2</v>
+        <v>-51.7</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6941.8</v>
+        <v>1763.1189999999999</v>
       </c>
       <c r="U25">
-        <v>180.6</v>
+        <v>54.192</v>
       </c>
       <c r="V25">
-        <v>616.9</v>
+        <v>228.1</v>
       </c>
       <c r="W25">
-        <v>-106.9</v>
+        <v>-25.1</v>
       </c>
       <c r="X25">
-        <v>-346.2</v>
+        <v>-140.80000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AA25">
-        <v>374.1</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>366.3</v>
+        <v>87.2</v>
       </c>
       <c r="D26">
-        <v>3352.1</v>
+        <v>1271</v>
       </c>
       <c r="E26">
-        <v>2341.1999999999998</v>
+        <v>867.6</v>
       </c>
       <c r="F26">
-        <v>1611.1</v>
+        <v>640.9</v>
       </c>
       <c r="G26">
-        <v>4279.3999999999996</v>
+        <v>1853.6</v>
       </c>
       <c r="H26">
-        <v>18330.2</v>
+        <v>4419.3999999999996</v>
       </c>
       <c r="I26">
-        <v>983.2</v>
+        <v>330.9</v>
       </c>
       <c r="J26">
-        <v>6145.7</v>
+        <v>557.1</v>
       </c>
       <c r="K26">
-        <v>29.9</v>
+        <v>109.1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3019.4</v>
+        <v>1502.8</v>
       </c>
       <c r="O26">
-        <v>11359.3</v>
+        <v>2739.2</v>
       </c>
       <c r="P26">
-        <v>6687</v>
+        <v>1066.0999999999999</v>
       </c>
       <c r="Q26">
-        <v>146.80000000000001</v>
+        <v>429.8</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>47565</v>
+        <v>23130</v>
       </c>
       <c r="T26">
-        <v>6970.9</v>
+        <v>1680.2</v>
       </c>
       <c r="U26">
-        <v>327.39999999999998</v>
+        <v>484</v>
       </c>
       <c r="V26">
-        <v>448</v>
+        <v>223.4</v>
       </c>
       <c r="W26">
-        <v>-103</v>
+        <v>-25.2</v>
       </c>
       <c r="X26">
-        <v>-44.8</v>
+        <v>286.2</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA26">
-        <v>366.3</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>254</v>
+        <v>89.5</v>
       </c>
       <c r="D27">
-        <v>3162.4</v>
+        <v>1254.2</v>
       </c>
       <c r="E27">
-        <v>2358</v>
+        <v>882.3</v>
       </c>
       <c r="F27">
-        <v>1312.1</v>
+        <v>638.5</v>
       </c>
       <c r="G27">
-        <v>4307.3</v>
+        <v>1457.2</v>
       </c>
       <c r="H27">
-        <v>19223</v>
+        <v>3993.4</v>
       </c>
       <c r="I27">
-        <v>1039.3</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="J27">
-        <v>5846.8</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="K27">
-        <v>890.1</v>
+        <v>234.4</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.4</v>
+        <v>-391.3</v>
       </c>
       <c r="N27">
-        <v>4205.3</v>
+        <v>1149.8</v>
       </c>
       <c r="O27">
-        <v>12344.5</v>
+        <v>2392</v>
       </c>
       <c r="P27">
-        <v>7546.2</v>
+        <v>791.7</v>
       </c>
       <c r="Q27">
-        <v>-168.3</v>
+        <v>-429.8</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6878.5</v>
+        <v>1601.4</v>
       </c>
       <c r="U27">
-        <v>212.1</v>
+        <v>54.2</v>
       </c>
       <c r="V27">
-        <v>425.7</v>
+        <v>86</v>
       </c>
       <c r="W27">
-        <v>-113.2</v>
+        <v>-28.9</v>
       </c>
       <c r="X27">
-        <v>395.5</v>
+        <v>-438.8</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>254</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>294.8</v>
+        <v>110.3</v>
       </c>
       <c r="D28">
-        <v>3460</v>
+        <v>1362.4</v>
       </c>
       <c r="E28">
-        <v>2446.8000000000002</v>
+        <v>930.8</v>
       </c>
       <c r="F28">
-        <v>1439</v>
+        <v>692.9</v>
       </c>
       <c r="G28">
-        <v>4532.1000000000004</v>
+        <v>1539.6</v>
       </c>
       <c r="H28">
-        <v>19523.400000000001</v>
+        <v>4140.3999999999996</v>
       </c>
       <c r="I28">
-        <v>1123.5999999999999</v>
+        <v>338.1</v>
       </c>
       <c r="J28">
-        <v>5909.3</v>
+        <v>563.9</v>
       </c>
       <c r="K28">
-        <v>959.8</v>
+        <v>295.2</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4318.3999999999996</v>
+        <v>1287.5</v>
       </c>
       <c r="O28">
-        <v>12534.7</v>
+        <v>2550.6999999999998</v>
       </c>
       <c r="P28">
-        <v>7679.9</v>
+        <v>859.1</v>
       </c>
       <c r="Q28">
-        <v>48.6</v>
+        <v>18</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6988.7</v>
+        <v>1589.7</v>
       </c>
       <c r="U28">
-        <v>260.7</v>
+        <v>72.2</v>
       </c>
       <c r="V28">
-        <v>434</v>
+        <v>221.3</v>
       </c>
       <c r="W28">
-        <v>-109.7</v>
+        <v>-28.7</v>
       </c>
       <c r="X28">
-        <v>-169.5</v>
+        <v>-114.1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>294.8</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>393.2</v>
+        <v>114</v>
       </c>
       <c r="D29">
-        <v>3564.5</v>
+        <v>1413.2</v>
       </c>
       <c r="E29">
-        <v>2533.1999999999998</v>
+        <v>969.4</v>
       </c>
       <c r="F29">
-        <v>1500.2</v>
+        <v>723.1</v>
       </c>
       <c r="G29">
-        <v>4614.5</v>
+        <v>1605</v>
       </c>
       <c r="H29">
-        <v>19856.7</v>
+        <v>4263.2</v>
       </c>
       <c r="I29">
-        <v>1115.9000000000001</v>
+        <v>316</v>
       </c>
       <c r="J29">
-        <v>6484.5</v>
+        <v>569.9</v>
       </c>
       <c r="K29">
-        <v>262.2</v>
+        <v>265.3</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3756.6</v>
+        <v>1322</v>
       </c>
       <c r="O29">
-        <v>12557.5</v>
+        <v>2561.8000000000002</v>
       </c>
       <c r="P29">
-        <v>7557.5</v>
+        <v>835.2</v>
       </c>
       <c r="Q29">
-        <v>-51.6</v>
+        <v>34.6</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7299.2</v>
+        <v>1701.4</v>
       </c>
       <c r="U29">
-        <v>209.1</v>
+        <v>106.8</v>
       </c>
       <c r="V29">
-        <v>585.20000000000005</v>
+        <v>236.4</v>
       </c>
       <c r="W29">
-        <v>-107.4</v>
+        <v>-28.2</v>
       </c>
       <c r="X29">
-        <v>-426.5</v>
+        <v>-65.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>393.2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>562.6</v>
+        <v>113.4</v>
       </c>
       <c r="D30">
-        <v>3649</v>
+        <v>1439.8</v>
       </c>
       <c r="E30">
-        <v>2571.4</v>
+        <v>974</v>
       </c>
       <c r="F30">
-        <v>1564.4</v>
+        <v>723.4</v>
       </c>
       <c r="G30">
-        <v>4594.3</v>
+        <v>1717.3</v>
       </c>
       <c r="H30">
-        <v>19963.5</v>
+        <v>4722.8</v>
       </c>
       <c r="I30">
-        <v>1177.0999999999999</v>
+        <v>343.7</v>
       </c>
       <c r="J30">
-        <v>6758.3</v>
+        <v>599.9</v>
       </c>
       <c r="K30">
-        <v>14.7</v>
+        <v>400.3</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3475.2</v>
+        <v>1518.3</v>
       </c>
       <c r="O30">
-        <v>12309.7</v>
+        <v>2787.1</v>
       </c>
       <c r="P30">
-        <v>7322.7</v>
+        <v>1003.4</v>
       </c>
       <c r="Q30">
-        <v>2.2999999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>48400</v>
+        <v>26052</v>
       </c>
       <c r="T30">
-        <v>7653.8</v>
+        <v>1935.7</v>
       </c>
       <c r="U30">
-        <v>211.4</v>
+        <v>137.4</v>
       </c>
       <c r="V30">
-        <v>646.4</v>
+        <v>253.9</v>
       </c>
       <c r="W30">
-        <v>-118.4</v>
+        <v>-28.2</v>
       </c>
       <c r="X30">
-        <v>-322.2</v>
+        <v>136</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>562.6</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>247.3</v>
+        <v>102.9</v>
       </c>
       <c r="D31">
-        <v>3470.9</v>
+        <v>1457.9</v>
       </c>
       <c r="E31">
-        <v>2574.3000000000002</v>
+        <v>1026.2</v>
       </c>
       <c r="F31">
-        <v>1398.6</v>
+        <v>719.6</v>
       </c>
       <c r="G31">
-        <v>4596.8</v>
+        <v>1891</v>
       </c>
       <c r="H31">
-        <v>20184.3</v>
+        <v>5234.3</v>
       </c>
       <c r="I31">
-        <v>1229.0999999999999</v>
+        <v>387.4</v>
       </c>
       <c r="J31">
-        <v>6397.7</v>
+        <v>864.9</v>
       </c>
       <c r="K31">
-        <v>372.1</v>
+        <v>444</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-300.60000000000002</v>
+        <v>-0.7</v>
       </c>
       <c r="N31">
-        <v>3982.8</v>
+        <v>1604.2</v>
       </c>
       <c r="O31">
-        <v>12514.4</v>
+        <v>3174.9</v>
       </c>
       <c r="P31">
-        <v>7415.5</v>
+        <v>1308.9000000000001</v>
       </c>
       <c r="Q31">
-        <v>-35.9</v>
+        <v>82.1</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7669.9</v>
+        <v>2059.4</v>
       </c>
       <c r="U31">
-        <v>175.5</v>
+        <v>219.5</v>
       </c>
       <c r="V31">
-        <v>487.2</v>
+        <v>137</v>
       </c>
       <c r="W31">
-        <v>-118.7</v>
+        <v>-32</v>
       </c>
       <c r="X31">
-        <v>-265</v>
+        <v>252.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>247.3</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>351.3</v>
+        <v>139</v>
       </c>
       <c r="D32">
-        <v>3689.6</v>
+        <v>1570</v>
       </c>
       <c r="E32">
-        <v>2635.4</v>
+        <v>1082.0999999999999</v>
       </c>
       <c r="F32">
-        <v>1543.4</v>
+        <v>771.2</v>
       </c>
       <c r="G32">
-        <v>4607.8999999999996</v>
+        <v>1992.5</v>
       </c>
       <c r="H32">
-        <v>19951.599999999999</v>
+        <v>5355.5</v>
       </c>
       <c r="I32">
-        <v>1242.0999999999999</v>
+        <v>399.1</v>
       </c>
       <c r="J32">
-        <v>6343.1</v>
+        <v>876</v>
       </c>
       <c r="K32">
-        <v>227</v>
+        <v>376.1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3623.8</v>
+        <v>1561.7</v>
       </c>
       <c r="O32">
-        <v>12043.1</v>
+        <v>3156.8</v>
       </c>
       <c r="P32">
-        <v>7217.6</v>
+        <v>1252.0999999999999</v>
       </c>
       <c r="Q32">
-        <v>-121.3</v>
+        <v>2.5</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7908.5</v>
+        <v>2198.6999999999998</v>
       </c>
       <c r="U32">
-        <v>54.2</v>
+        <v>222</v>
       </c>
       <c r="V32">
-        <v>298.5</v>
+        <v>173.7</v>
       </c>
       <c r="W32">
-        <v>-118.2</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="X32">
-        <v>-241.5</v>
+        <v>-98.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>351.3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>435.4</v>
+        <v>126.2</v>
       </c>
       <c r="D33">
-        <v>3747.2</v>
+        <v>1626.3</v>
       </c>
       <c r="E33">
-        <v>2652.7</v>
+        <v>1100.8</v>
       </c>
       <c r="F33">
-        <v>1560.1</v>
+        <v>792</v>
       </c>
       <c r="G33">
-        <v>4822.3</v>
+        <v>1894.2</v>
       </c>
       <c r="H33">
-        <v>19962.599999999999</v>
+        <v>5113.8999999999996</v>
       </c>
       <c r="I33">
-        <v>1195.3</v>
+        <v>394.9</v>
       </c>
       <c r="J33">
-        <v>6334.8</v>
+        <v>859.4</v>
       </c>
       <c r="K33">
-        <v>119.7</v>
+        <v>179</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3589.8</v>
+        <v>1338</v>
       </c>
       <c r="O33">
-        <v>11979.6</v>
+        <v>2880.6</v>
       </c>
       <c r="P33">
-        <v>7104.2</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="Q33">
-        <v>149.4</v>
+        <v>-119.9</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7983</v>
+        <v>2233.3000000000002</v>
       </c>
       <c r="U33">
-        <v>203.6</v>
+        <v>102.1</v>
       </c>
       <c r="V33">
-        <v>664.7</v>
+        <v>185.5</v>
       </c>
       <c r="W33">
-        <v>-118.5</v>
+        <v>-32.1</v>
       </c>
       <c r="X33">
-        <v>-313</v>
+        <v>-203.5</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>435.4</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>395.1</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>3760.5</v>
+        <v>1483.3</v>
       </c>
       <c r="E34">
-        <v>2662.5</v>
+        <v>971</v>
       </c>
       <c r="F34">
-        <v>1549.5</v>
+        <v>713.1</v>
       </c>
       <c r="G34">
-        <v>4677.7</v>
+        <v>1691.1</v>
       </c>
       <c r="H34">
-        <v>20074.5</v>
+        <v>4756.8999999999996</v>
       </c>
       <c r="I34">
-        <v>1255.5999999999999</v>
+        <v>359.6</v>
       </c>
       <c r="J34">
-        <v>6295.4</v>
+        <v>799.3</v>
       </c>
       <c r="K34">
-        <v>342.2</v>
+        <v>333.8</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3685.6</v>
+        <v>1441.9</v>
       </c>
       <c r="O34">
-        <v>12020.9</v>
+        <v>3177.9</v>
       </c>
       <c r="P34">
-        <v>7045.2</v>
+        <v>1138.2</v>
       </c>
       <c r="Q34">
-        <v>90.4</v>
+        <v>-35.4</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>49000</v>
+        <v>26568</v>
       </c>
       <c r="T34">
-        <v>8053.6</v>
+        <v>1579</v>
       </c>
       <c r="U34">
-        <v>114.7</v>
+        <v>66.7</v>
       </c>
       <c r="V34">
-        <v>827.3</v>
+        <v>257</v>
       </c>
       <c r="W34">
-        <v>-141.1</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="X34">
-        <v>-353.2</v>
+        <v>-186.5</v>
       </c>
       <c r="Y34">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>395.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>296.5</v>
+        <v>57.4</v>
       </c>
       <c r="D35">
-        <v>2924.7</v>
+        <v>1348.2</v>
       </c>
       <c r="E35">
-        <v>2691.6</v>
+        <v>913.3</v>
       </c>
       <c r="F35">
-        <v>1252.8</v>
+        <v>648.29999999999995</v>
       </c>
       <c r="G35">
-        <v>4751</v>
+        <v>1683.1</v>
       </c>
       <c r="H35">
-        <v>20927.599999999999</v>
+        <v>4703.8</v>
       </c>
       <c r="I35">
-        <v>1237.7</v>
+        <v>308.89999999999998</v>
       </c>
       <c r="J35">
-        <v>6005.8</v>
+        <v>797.8</v>
       </c>
       <c r="K35">
-        <v>831.4</v>
+        <v>414.8</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-400.3</v>
+        <v>-2</v>
       </c>
       <c r="N35">
-        <v>4156</v>
+        <v>1421.4</v>
       </c>
       <c r="O35">
-        <v>12660.7</v>
+        <v>3111.7</v>
       </c>
       <c r="P35">
-        <v>7711.8</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="Q35">
-        <v>-215</v>
+        <v>12.8</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8266.9</v>
+        <v>1592.1</v>
       </c>
       <c r="U35">
-        <v>79</v>
+        <v>79.5</v>
       </c>
       <c r="V35">
-        <v>378.1</v>
+        <v>27.4</v>
       </c>
       <c r="W35">
-        <v>-132.4</v>
+        <v>-33</v>
       </c>
       <c r="X35">
-        <v>-117.5</v>
+        <v>48.7</v>
       </c>
       <c r="Y35">
-        <v>414.6</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>296.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="D36">
-        <v>3169.1</v>
+        <v>1441.5</v>
       </c>
       <c r="E36">
-        <v>2747.1</v>
+        <v>970.6</v>
       </c>
       <c r="F36">
-        <v>1396.6</v>
+        <v>716.5</v>
       </c>
       <c r="G36">
-        <v>4853.5</v>
+        <v>1749.9</v>
       </c>
       <c r="H36">
-        <v>20827.599999999999</v>
+        <v>4928.3</v>
       </c>
       <c r="I36">
-        <v>1297.9000000000001</v>
+        <v>343.7</v>
       </c>
       <c r="J36">
-        <v>5987.1</v>
+        <v>842.8</v>
       </c>
       <c r="K36">
-        <v>768.8</v>
+        <v>235.5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4127.7</v>
+        <v>1339.9</v>
       </c>
       <c r="O36">
-        <v>12558.2</v>
+        <v>3116.2</v>
       </c>
       <c r="P36">
-        <v>7606.4</v>
+        <v>1084.5999999999999</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8269.4</v>
+        <v>1812.1</v>
       </c>
       <c r="U36">
-        <v>85.7</v>
+        <v>82.7</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-33.4</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>-205.2</v>
       </c>
       <c r="Y36">
-        <v>398.6</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>368.6</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>464.2</v>
+        <v>145</v>
       </c>
       <c r="D37">
-        <v>3224</v>
+        <v>1546.4</v>
       </c>
       <c r="E37">
-        <v>2722.5</v>
+        <v>1013</v>
       </c>
       <c r="F37">
-        <v>1454.5</v>
+        <v>783.8</v>
       </c>
       <c r="G37">
-        <v>4870.1000000000004</v>
+        <v>1816</v>
       </c>
       <c r="H37">
-        <v>20835.599999999999</v>
+        <v>4988.8</v>
       </c>
       <c r="I37">
-        <v>1269.4000000000001</v>
+        <v>367.3</v>
       </c>
       <c r="J37">
-        <v>5966.9</v>
+        <v>850</v>
       </c>
       <c r="K37">
-        <v>478.4</v>
+        <v>114.3</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3919.5</v>
+        <v>1292.9000000000001</v>
       </c>
       <c r="O37">
-        <v>12223.2</v>
+        <v>3018.8</v>
       </c>
       <c r="P37">
-        <v>7316.6</v>
+        <v>971</v>
       </c>
       <c r="Q37">
-        <v>50.1</v>
+        <v>24.8</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8612.4</v>
+        <v>1970</v>
       </c>
       <c r="U37">
-        <v>135.9</v>
+        <v>107.5</v>
       </c>
       <c r="V37">
-        <v>682.1</v>
+        <v>232.1</v>
       </c>
       <c r="W37">
-        <v>-152</v>
+        <v>-33.1</v>
       </c>
       <c r="X37">
-        <v>-371.9</v>
+        <v>-136.30000000000001</v>
       </c>
       <c r="Y37">
-        <v>418.9</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>464.2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>429.6</v>
+        <v>115.8</v>
       </c>
       <c r="D38">
-        <v>3244.2</v>
+        <v>1564.5</v>
       </c>
       <c r="E38">
-        <v>2382</v>
+        <v>1016.1</v>
       </c>
       <c r="F38">
-        <v>1450.8</v>
+        <v>786.6</v>
       </c>
       <c r="G38">
-        <v>4828.3999999999996</v>
+        <v>1814.2</v>
       </c>
       <c r="H38">
-        <v>20869.099999999999</v>
+        <v>5020.8999999999996</v>
       </c>
       <c r="I38">
-        <v>1075.3</v>
+        <v>360.9</v>
       </c>
       <c r="J38">
-        <v>5970.1</v>
+        <v>868.8</v>
       </c>
       <c r="K38">
-        <v>79.599999999999994</v>
+        <v>90.6</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3630.6</v>
+        <v>1250.2</v>
       </c>
       <c r="O38">
-        <v>12143.3</v>
+        <v>3011.3</v>
       </c>
       <c r="P38">
-        <v>6821.7</v>
+        <v>967.3</v>
       </c>
       <c r="Q38">
-        <v>50.5</v>
+        <v>-33.9</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>50200</v>
+        <v>25931</v>
       </c>
       <c r="T38">
-        <v>8725.7999999999993</v>
+        <v>2009.6</v>
       </c>
       <c r="U38">
-        <v>118.8</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="V38">
-        <v>821</v>
+        <v>163.5</v>
       </c>
       <c r="W38">
-        <v>-136.80000000000001</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="X38">
-        <v>-502.1</v>
+        <v>-105</v>
       </c>
       <c r="Y38">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>429.6</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>283.39999999999998</v>
+        <v>95.5</v>
       </c>
       <c r="D39">
-        <v>3020.6</v>
+        <v>1432.1</v>
       </c>
       <c r="E39">
-        <v>2855.9</v>
+        <v>950.2</v>
       </c>
       <c r="F39">
-        <v>1309.5</v>
+        <v>715.4</v>
       </c>
       <c r="G39">
-        <v>6437.1</v>
+        <v>1718.3</v>
       </c>
       <c r="H39">
-        <v>22339.599999999999</v>
+        <v>4769.2</v>
       </c>
       <c r="I39">
-        <v>1279.5</v>
+        <v>316</v>
       </c>
       <c r="J39">
-        <v>6739.7</v>
+        <v>677.9</v>
       </c>
       <c r="K39">
-        <v>1037.0999999999999</v>
+        <v>203.4</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-299.7</v>
+        <v>-1.4</v>
       </c>
       <c r="N39">
-        <v>4257.3999999999996</v>
+        <v>1370</v>
       </c>
       <c r="O39">
-        <v>13479</v>
+        <v>2900.7</v>
       </c>
       <c r="P39">
-        <v>8341.7000000000007</v>
+        <v>1039</v>
       </c>
       <c r="Q39">
-        <v>1475.5</v>
+        <v>11.7</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8860.6</v>
+        <v>1868.5</v>
       </c>
       <c r="U39">
-        <v>1661.9</v>
+        <v>85.3</v>
       </c>
       <c r="V39">
-        <v>371.8</v>
+        <v>135.4</v>
       </c>
       <c r="W39">
-        <v>-135.5</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="X39">
-        <v>1265.8</v>
+        <v>-53.9</v>
       </c>
       <c r="Y39">
-        <v>411.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>283.39999999999998</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="D40">
-        <v>2685.7</v>
+        <v>1520.2</v>
       </c>
       <c r="E40">
-        <v>2255.5</v>
+        <v>950.1</v>
       </c>
       <c r="F40">
-        <v>1077</v>
+        <v>770.2</v>
       </c>
       <c r="G40">
-        <v>5166.2</v>
+        <v>1735.3</v>
       </c>
       <c r="H40">
-        <v>18082.400000000001</v>
+        <v>4663.8</v>
       </c>
       <c r="I40">
-        <v>1087.7</v>
+        <v>324</v>
       </c>
       <c r="J40">
-        <v>6749.1</v>
+        <v>637</v>
       </c>
       <c r="K40">
-        <v>534.20000000000005</v>
+        <v>169.4</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3227.7</v>
+        <v>1339.9</v>
       </c>
       <c r="O40">
-        <v>12192.2</v>
+        <v>2802.2</v>
       </c>
       <c r="P40">
-        <v>7729.1</v>
+        <v>963.7</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5890.2</v>
+        <v>1861.6</v>
       </c>
       <c r="U40">
-        <v>1369</v>
+        <v>121.3</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>229.6</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-36.6</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-109.9</v>
       </c>
       <c r="Y40">
-        <v>322.3</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-2035</v>
+        <v>129.30000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>246.2</v>
+        <v>174.2</v>
       </c>
       <c r="D41">
-        <v>3018.6</v>
+        <v>1561.9</v>
       </c>
       <c r="E41">
-        <v>2320.6999999999998</v>
+        <v>1019.8</v>
       </c>
       <c r="F41">
-        <v>1258.5</v>
+        <v>798.5</v>
       </c>
       <c r="G41">
-        <v>4992</v>
+        <v>1854.5</v>
       </c>
       <c r="H41">
-        <v>18097.099999999999</v>
+        <v>4861.5</v>
       </c>
       <c r="I41">
-        <v>1108.4000000000001</v>
+        <v>346.9</v>
       </c>
       <c r="J41">
-        <v>6661.3</v>
+        <v>647.29999999999995</v>
       </c>
       <c r="K41">
-        <v>245.7</v>
+        <v>187.2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3106.4</v>
+        <v>1438.6</v>
       </c>
       <c r="O41">
-        <v>12047.7</v>
+        <v>2893.7</v>
       </c>
       <c r="P41">
-        <v>7350.1</v>
+        <v>990.9</v>
       </c>
       <c r="Q41">
-        <v>-401.9</v>
+        <v>47.1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6049.4</v>
+        <v>1967.8</v>
       </c>
       <c r="U41">
-        <v>1034.7</v>
+        <v>168.4</v>
       </c>
       <c r="V41">
-        <v>451.8</v>
+        <v>273.2</v>
       </c>
       <c r="W41">
-        <v>-150.30000000000001</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="X41">
-        <v>-690.3</v>
+        <v>-121.7</v>
       </c>
       <c r="Y41">
-        <v>317.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>246.2</v>
+        <v>174.2</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1575.5</v>
+      </c>
+      <c r="E42">
+        <v>999.6</v>
+      </c>
+      <c r="F42">
+        <v>791.8</v>
+      </c>
+      <c r="G42">
+        <v>1869.9</v>
+      </c>
+      <c r="H42">
+        <v>4872.2</v>
+      </c>
+      <c r="I42">
+        <v>349.3</v>
+      </c>
+      <c r="J42">
+        <v>656.4</v>
+      </c>
+      <c r="K42">
+        <v>32.4</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1324.8</v>
+      </c>
+      <c r="O42">
+        <v>2739.2</v>
+      </c>
+      <c r="P42">
+        <v>845.6</v>
+      </c>
+      <c r="Q42">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>26494</v>
+      </c>
+      <c r="T42">
+        <v>2133</v>
+      </c>
+      <c r="U42">
+        <v>242.3</v>
+      </c>
+      <c r="V42">
+        <v>312.2</v>
+      </c>
+      <c r="W42">
+        <v>-35.9</v>
+      </c>
+      <c r="X42">
+        <v>-176.7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>93.6</v>
+      </c>
+      <c r="D43">
+        <v>1518.3</v>
+      </c>
+      <c r="E43">
+        <v>1042.5999999999999</v>
+      </c>
+      <c r="F43">
+        <v>748.7</v>
+      </c>
+      <c r="G43">
+        <v>1888.9</v>
+      </c>
+      <c r="H43">
+        <v>5262.3</v>
+      </c>
+      <c r="I43">
+        <v>359.7</v>
+      </c>
+      <c r="J43">
+        <v>683.7</v>
+      </c>
+      <c r="K43">
+        <v>498.9</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-151.80000000000001</v>
+      </c>
+      <c r="N43">
+        <v>1650.2</v>
+      </c>
+      <c r="O43">
+        <v>3047.6</v>
+      </c>
+      <c r="P43">
+        <v>1190.0999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-90.9</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2214.6999999999998</v>
+      </c>
+      <c r="U43">
+        <v>151.4</v>
+      </c>
+      <c r="V43">
+        <v>56.1</v>
+      </c>
+      <c r="W43">
+        <v>-40.6</v>
+      </c>
+      <c r="X43">
+        <v>219.1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>125.9</v>
+      </c>
+      <c r="D44">
+        <v>1698.8</v>
+      </c>
+      <c r="E44">
+        <v>1106.7</v>
+      </c>
+      <c r="F44">
+        <v>838</v>
+      </c>
+      <c r="G44">
+        <v>1994.2</v>
+      </c>
+      <c r="H44">
+        <v>5407.4</v>
+      </c>
+      <c r="I44">
+        <v>400.5</v>
+      </c>
+      <c r="J44">
+        <v>703.3</v>
+      </c>
+      <c r="K44">
+        <v>395.7</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1639.6</v>
+      </c>
+      <c r="O44">
+        <v>3065</v>
+      </c>
+      <c r="P44">
+        <v>1115.3</v>
+      </c>
+      <c r="Q44">
+        <v>11.8</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2342.4</v>
+      </c>
+      <c r="U44">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="V44">
+        <v>246</v>
+      </c>
+      <c r="W44">
+        <v>-40.6</v>
+      </c>
+      <c r="X44">
+        <v>-155.6</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="D45">
+        <v>1736.1</v>
+      </c>
+      <c r="E45">
+        <v>1143.0999999999999</v>
+      </c>
+      <c r="F45">
+        <v>862.7</v>
+      </c>
+      <c r="G45">
+        <v>2091</v>
+      </c>
+      <c r="H45">
+        <v>5505.6</v>
+      </c>
+      <c r="I45">
+        <v>413.4</v>
+      </c>
+      <c r="J45">
+        <v>700.2</v>
+      </c>
+      <c r="K45">
+        <v>329.6</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1617.7</v>
+      </c>
+      <c r="O45">
+        <v>3034.7</v>
+      </c>
+      <c r="P45">
+        <v>1052.0999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>44.1</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2470.9</v>
+      </c>
+      <c r="U45">
+        <v>207.3</v>
+      </c>
+      <c r="V45">
+        <v>238.6</v>
+      </c>
+      <c r="W45">
+        <v>-41.1</v>
+      </c>
+      <c r="X45">
+        <v>-106.2</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>88.7</v>
+      </c>
+      <c r="D46">
+        <v>1845.3</v>
+      </c>
+      <c r="E46">
+        <v>2095.3000000000002</v>
+      </c>
+      <c r="F46">
+        <v>882.4</v>
+      </c>
+      <c r="G46">
+        <v>5396</v>
+      </c>
+      <c r="H46">
+        <v>18184.7</v>
+      </c>
+      <c r="I46">
+        <v>815.7</v>
+      </c>
+      <c r="J46">
+        <v>6613.2</v>
+      </c>
+      <c r="K46">
+        <v>1016.4</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3166.3</v>
+      </c>
+      <c r="O46">
+        <v>12443.6</v>
+      </c>
+      <c r="P46">
+        <v>7636.2</v>
+      </c>
+      <c r="Q46">
+        <v>1636.3</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>40200</v>
+      </c>
+      <c r="T46">
+        <v>5741.1</v>
+      </c>
+      <c r="U46">
+        <v>1843.6</v>
+      </c>
+      <c r="V46">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="W46">
+        <v>-40.6</v>
+      </c>
+      <c r="X46">
+        <v>2976.5</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>49.7</v>
+      </c>
+      <c r="D47">
+        <v>2810.9</v>
+      </c>
+      <c r="E47">
+        <v>2049</v>
+      </c>
+      <c r="F47">
+        <v>1272.9000000000001</v>
+      </c>
+      <c r="G47">
+        <v>3959.8</v>
+      </c>
+      <c r="H47">
+        <v>16861.7</v>
+      </c>
+      <c r="I47">
+        <v>805.1</v>
+      </c>
+      <c r="J47">
+        <v>4911</v>
+      </c>
+      <c r="K47">
+        <v>1340</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1689.5</v>
+      </c>
+      <c r="N47">
+        <v>3506.6</v>
+      </c>
+      <c r="O47">
+        <v>11056.6</v>
+      </c>
+      <c r="P47">
+        <v>6257.9</v>
+      </c>
+      <c r="Q47">
+        <v>-1489.6</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5805.1</v>
+      </c>
+      <c r="U47">
+        <v>354</v>
+      </c>
+      <c r="V47">
+        <v>110.5</v>
+      </c>
+      <c r="W47">
+        <v>-61.2</v>
+      </c>
+      <c r="X47">
+        <v>-1469.8</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>184.5</v>
+      </c>
+      <c r="D48">
+        <v>2958.7</v>
+      </c>
+      <c r="E48">
+        <v>2076.9</v>
+      </c>
+      <c r="F48">
+        <v>1352.9</v>
+      </c>
+      <c r="G48">
+        <v>3908.5</v>
+      </c>
+      <c r="H48">
+        <v>16465.400000000001</v>
+      </c>
+      <c r="I48">
+        <v>785.1</v>
+      </c>
+      <c r="J48">
+        <v>4879.2</v>
+      </c>
+      <c r="K48">
+        <v>1439.1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3450.7</v>
+      </c>
+      <c r="O48">
+        <v>10763.2</v>
+      </c>
+      <c r="P48">
+        <v>6324.5</v>
+      </c>
+      <c r="Q48">
+        <v>-49.1</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5702.2</v>
+      </c>
+      <c r="U48">
+        <v>304.89999999999998</v>
+      </c>
+      <c r="V48">
+        <v>100.6</v>
+      </c>
+      <c r="W48">
+        <v>-59.7</v>
+      </c>
+      <c r="X48">
+        <v>15.7</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>238</v>
+      </c>
+      <c r="D49">
+        <v>3023.3</v>
+      </c>
+      <c r="E49">
+        <v>2199</v>
+      </c>
+      <c r="F49">
+        <v>1410.1</v>
+      </c>
+      <c r="G49">
+        <v>4072.9</v>
+      </c>
+      <c r="H49">
+        <v>16722.8</v>
+      </c>
+      <c r="I49">
+        <v>858.6</v>
+      </c>
+      <c r="J49">
+        <v>5386.7</v>
+      </c>
+      <c r="K49">
+        <v>625.20000000000005</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2818.7</v>
+      </c>
+      <c r="O49">
+        <v>10696.6</v>
+      </c>
+      <c r="P49">
+        <v>6017.7</v>
+      </c>
+      <c r="Q49">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6026.2</v>
+      </c>
+      <c r="U49">
+        <v>324</v>
+      </c>
+      <c r="V49">
+        <v>509.7</v>
+      </c>
+      <c r="W49">
+        <v>-59.6</v>
+      </c>
+      <c r="X49">
+        <v>-361.7</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>231.4</v>
+      </c>
+      <c r="D50">
+        <v>3045.8</v>
+      </c>
+      <c r="E50">
+        <v>2225.1</v>
+      </c>
+      <c r="F50">
+        <v>1413.2</v>
+      </c>
+      <c r="G50">
+        <v>4892</v>
+      </c>
+      <c r="H50">
+        <v>17572.3</v>
+      </c>
+      <c r="I50">
+        <v>879.7</v>
+      </c>
+      <c r="J50">
+        <v>5736.1</v>
+      </c>
+      <c r="K50">
+        <v>638.20000000000005</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3052.7</v>
+      </c>
+      <c r="O50">
+        <v>11412.2</v>
+      </c>
+      <c r="P50">
+        <v>6541.9</v>
+      </c>
+      <c r="Q50">
+        <v>833.8</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>40860</v>
+      </c>
+      <c r="T50">
+        <v>6160.1</v>
+      </c>
+      <c r="U50">
+        <v>1157.8</v>
+      </c>
+      <c r="V50">
+        <v>482.2</v>
+      </c>
+      <c r="W50">
+        <v>-126.3</v>
+      </c>
+      <c r="X50">
+        <v>422.2</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>159.6</v>
+      </c>
+      <c r="D51">
+        <v>2872.1</v>
+      </c>
+      <c r="E51">
+        <v>2182.1</v>
+      </c>
+      <c r="F51">
+        <v>1334.4</v>
+      </c>
+      <c r="G51">
+        <v>4603.3999999999996</v>
+      </c>
+      <c r="H51">
+        <v>17296.2</v>
+      </c>
+      <c r="I51">
+        <v>845</v>
+      </c>
+      <c r="J51">
+        <v>5737.1</v>
+      </c>
+      <c r="K51">
+        <v>328.7</v>
+      </c>
+      <c r="L51">
+        <v>-310</v>
+      </c>
+      <c r="M51">
+        <v>-1.7</v>
+      </c>
+      <c r="N51">
+        <v>2684.2</v>
+      </c>
+      <c r="O51">
+        <v>11063.7</v>
+      </c>
+      <c r="P51">
+        <v>6234.2</v>
+      </c>
+      <c r="Q51">
+        <v>-333.5</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6232.5</v>
+      </c>
+      <c r="U51">
+        <v>824.3</v>
+      </c>
+      <c r="V51">
+        <v>186</v>
+      </c>
+      <c r="W51">
+        <v>-4.5</v>
+      </c>
+      <c r="X51">
+        <v>-293.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>213.1</v>
+      </c>
+      <c r="D52">
+        <v>3337.8</v>
+      </c>
+      <c r="E52">
+        <v>2436.3000000000002</v>
+      </c>
+      <c r="F52">
+        <v>1542.8</v>
+      </c>
+      <c r="G52">
+        <v>4698.2</v>
+      </c>
+      <c r="H52">
+        <v>19654.3</v>
+      </c>
+      <c r="I52">
+        <v>912</v>
+      </c>
+      <c r="J52">
+        <v>6635.3</v>
+      </c>
+      <c r="K52">
+        <v>704.5</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3245.5</v>
+      </c>
+      <c r="O52">
+        <v>12915.6</v>
+      </c>
+      <c r="P52">
+        <v>7508.2</v>
+      </c>
+      <c r="Q52">
+        <v>-449.1</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6738.7</v>
+      </c>
+      <c r="U52">
+        <v>375.2</v>
+      </c>
+      <c r="V52">
+        <v>207</v>
+      </c>
+      <c r="W52">
+        <v>-67.900000000000006</v>
+      </c>
+      <c r="X52">
+        <v>851.3</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>213.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>308</v>
+      </c>
+      <c r="D53">
+        <v>3484</v>
+      </c>
+      <c r="E53">
+        <v>2488.9</v>
+      </c>
+      <c r="F53">
+        <v>1624.2</v>
+      </c>
+      <c r="G53">
+        <v>4796</v>
+      </c>
+      <c r="H53">
+        <v>19613.599999999999</v>
+      </c>
+      <c r="I53">
+        <v>926.6</v>
+      </c>
+      <c r="J53">
+        <v>6537.3</v>
+      </c>
+      <c r="K53">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3200.6</v>
+      </c>
+      <c r="O53">
+        <v>12767.7</v>
+      </c>
+      <c r="P53">
+        <v>7250.5</v>
+      </c>
+      <c r="Q53">
+        <v>19.2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6845.9</v>
+      </c>
+      <c r="U53">
+        <v>394.4</v>
+      </c>
+      <c r="V53">
+        <v>536.20000000000005</v>
+      </c>
+      <c r="W53">
+        <v>-71.2</v>
+      </c>
+      <c r="X53">
+        <v>-363.5</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="D54">
+        <v>3559.5</v>
+      </c>
+      <c r="E54">
+        <v>2568</v>
+      </c>
+      <c r="F54">
+        <v>1634</v>
+      </c>
+      <c r="G54">
+        <v>4698.3999999999996</v>
+      </c>
+      <c r="H54">
+        <v>19636.5</v>
+      </c>
+      <c r="I54">
+        <v>1021.9</v>
+      </c>
+      <c r="J54">
+        <v>6043.5</v>
+      </c>
+      <c r="K54">
+        <v>355.7</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3488.7</v>
+      </c>
+      <c r="O54">
+        <v>12227.1</v>
+      </c>
+      <c r="P54">
+        <v>6904.5</v>
+      </c>
+      <c r="Q54">
+        <v>-55.2</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>45415</v>
+      </c>
+      <c r="T54">
+        <v>7409.4</v>
+      </c>
+      <c r="U54">
+        <v>339.2</v>
+      </c>
+      <c r="V54">
+        <v>630.6</v>
+      </c>
+      <c r="W54">
+        <v>-74.5</v>
+      </c>
+      <c r="X54">
+        <v>-486.9</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>287.10000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>191</v>
+      </c>
+      <c r="D55">
+        <v>3336.6</v>
+      </c>
+      <c r="E55">
+        <v>2519.6</v>
+      </c>
+      <c r="F55">
+        <v>1523.4</v>
+      </c>
+      <c r="G55">
+        <v>4703</v>
+      </c>
+      <c r="H55">
+        <v>19563.400000000001</v>
+      </c>
+      <c r="I55">
+        <v>951.2</v>
+      </c>
+      <c r="J55">
+        <v>5696.6</v>
+      </c>
+      <c r="K55">
+        <v>752.4</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-101.4</v>
+      </c>
+      <c r="N55">
+        <v>3904.4</v>
+      </c>
+      <c r="O55">
+        <v>12290.3</v>
+      </c>
+      <c r="P55">
+        <v>7204</v>
+      </c>
+      <c r="Q55">
+        <v>-38.9</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7273.1</v>
+      </c>
+      <c r="U55">
         <v>300.3</v>
       </c>
-      <c r="D42">
+      <c r="V55">
+        <v>214.4</v>
+      </c>
+      <c r="W55">
+        <v>-85.9</v>
+      </c>
+      <c r="X55">
+        <v>-73.099999999999994</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="D56">
+        <v>3568.2</v>
+      </c>
+      <c r="E56">
+        <v>2637.3</v>
+      </c>
+      <c r="F56">
+        <v>1659.9</v>
+      </c>
+      <c r="G56">
+        <v>4772.1000000000004</v>
+      </c>
+      <c r="H56">
+        <v>19613.8</v>
+      </c>
+      <c r="I56">
+        <v>1004.5</v>
+      </c>
+      <c r="J56">
+        <v>5539.1</v>
+      </c>
+      <c r="K56">
+        <v>834.8</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3966.9</v>
+      </c>
+      <c r="O56">
+        <v>12153.7</v>
+      </c>
+      <c r="P56">
+        <v>7129.8</v>
+      </c>
+      <c r="Q56">
+        <v>-113.3</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7460.1</v>
+      </c>
+      <c r="U56">
+        <v>187</v>
+      </c>
+      <c r="V56">
+        <v>317.5</v>
+      </c>
+      <c r="W56">
+        <v>-86.4</v>
+      </c>
+      <c r="X56">
+        <v>-246.8</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>311.39999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>364.9</v>
+      </c>
+      <c r="D57">
+        <v>3694.9</v>
+      </c>
+      <c r="E57">
+        <v>2694.4</v>
+      </c>
+      <c r="F57">
+        <v>1725.1</v>
+      </c>
+      <c r="G57">
+        <v>4871.8</v>
+      </c>
+      <c r="H57">
+        <v>19685.8</v>
+      </c>
+      <c r="I57">
+        <v>1047.3</v>
+      </c>
+      <c r="J57">
+        <v>4874</v>
+      </c>
+      <c r="K57">
+        <v>667</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4455</v>
+      </c>
+      <c r="O57">
+        <v>11919.5</v>
+      </c>
+      <c r="P57">
+        <v>6801.2</v>
+      </c>
+      <c r="Q57">
+        <v>10.8</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7766.3</v>
+      </c>
+      <c r="U57">
+        <v>197.8</v>
+      </c>
+      <c r="V57">
+        <v>613.1</v>
+      </c>
+      <c r="W57">
+        <v>-86.6</v>
+      </c>
+      <c r="X57">
+        <v>-393.8</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>364.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>335.5</v>
+      </c>
+      <c r="D58">
+        <v>3680.8</v>
+      </c>
+      <c r="E58">
+        <v>2626.7</v>
+      </c>
+      <c r="F58">
+        <v>1707.3</v>
+      </c>
+      <c r="G58">
+        <v>4853</v>
+      </c>
+      <c r="H58">
+        <v>19427.400000000001</v>
+      </c>
+      <c r="I58">
+        <v>1162.4000000000001</v>
+      </c>
+      <c r="J58">
+        <v>4843.3999999999996</v>
+      </c>
+      <c r="K58">
+        <v>949.9</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4367.8999999999996</v>
+      </c>
+      <c r="O58">
+        <v>12045.3</v>
+      </c>
+      <c r="P58">
+        <v>6548.2</v>
+      </c>
+      <c r="Q58">
+        <v>11.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>47430</v>
+      </c>
+      <c r="T58">
+        <v>7382.1</v>
+      </c>
+      <c r="U58">
+        <v>209.6</v>
+      </c>
+      <c r="V58">
+        <v>670.6</v>
+      </c>
+      <c r="W58">
+        <v>-85.5</v>
+      </c>
+      <c r="X58">
+        <v>-357.3</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>335.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>233.4</v>
+      </c>
+      <c r="D59">
+        <v>3297.6</v>
+      </c>
+      <c r="E59">
+        <v>2546.9</v>
+      </c>
+      <c r="F59">
+        <v>1532.9</v>
+      </c>
+      <c r="G59">
+        <v>4921.8</v>
+      </c>
+      <c r="H59">
+        <v>19252</v>
+      </c>
+      <c r="I59">
+        <v>950.6</v>
+      </c>
+      <c r="J59">
+        <v>5408.7</v>
+      </c>
+      <c r="K59">
+        <v>1281.5999999999999</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-375.7</v>
+      </c>
+      <c r="N59">
+        <v>4121</v>
+      </c>
+      <c r="O59">
+        <v>12316</v>
+      </c>
+      <c r="P59">
+        <v>7206.2</v>
+      </c>
+      <c r="Q59">
+        <v>28.3</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6936</v>
+      </c>
+      <c r="U59">
+        <v>237.9</v>
+      </c>
+      <c r="V59">
+        <v>112.5</v>
+      </c>
+      <c r="W59">
+        <v>-99.8</v>
+      </c>
+      <c r="X59">
+        <v>85.9</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>302</v>
+      </c>
+      <c r="D60">
+        <v>3389.1</v>
+      </c>
+      <c r="E60">
+        <v>2494.8000000000002</v>
+      </c>
+      <c r="F60">
+        <v>1593.6</v>
+      </c>
+      <c r="G60">
+        <v>4971.1000000000004</v>
+      </c>
+      <c r="H60">
+        <v>19217.3</v>
+      </c>
+      <c r="I60">
+        <v>961</v>
+      </c>
+      <c r="J60">
+        <v>5124.2</v>
+      </c>
+      <c r="K60">
+        <v>1394.9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4446.1000000000004</v>
+      </c>
+      <c r="O60">
+        <v>12337.8</v>
+      </c>
+      <c r="P60">
+        <v>7309.5</v>
+      </c>
+      <c r="Q60">
+        <v>72.7</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6879.5</v>
+      </c>
+      <c r="U60">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="V60">
+        <v>524.1</v>
+      </c>
+      <c r="W60">
+        <v>-102.7</v>
+      </c>
+      <c r="X60">
+        <v>-269.89999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>257.8</v>
+      </c>
+      <c r="D61">
+        <v>3446.4</v>
+      </c>
+      <c r="E61">
+        <v>2450</v>
+      </c>
+      <c r="F61">
+        <v>1650.2</v>
+      </c>
+      <c r="G61">
+        <v>4642.3999999999996</v>
+      </c>
+      <c r="H61">
+        <v>18883.3</v>
+      </c>
+      <c r="I61">
+        <v>1034.5</v>
+      </c>
+      <c r="J61">
+        <v>5753.7</v>
+      </c>
+      <c r="K61">
+        <v>722.4</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3556.6</v>
+      </c>
+      <c r="O61">
+        <v>12040.7</v>
+      </c>
+      <c r="P61">
+        <v>6762.8</v>
+      </c>
+      <c r="Q61">
+        <v>-125.8</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6842.6</v>
+      </c>
+      <c r="U61">
+        <v>184.8</v>
+      </c>
+      <c r="V61">
+        <v>758.6</v>
+      </c>
+      <c r="W61">
+        <v>-99.1</v>
+      </c>
+      <c r="X61">
+        <v>-638.79999999999995</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>257.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>208.9</v>
+      </c>
+      <c r="D62">
+        <v>3412</v>
+      </c>
+      <c r="E62">
+        <v>2390.1999999999998</v>
+      </c>
+      <c r="F62">
+        <v>1625.5</v>
+      </c>
+      <c r="G62">
+        <v>4447.5</v>
+      </c>
+      <c r="H62">
+        <v>18641.7</v>
+      </c>
+      <c r="I62">
+        <v>1049.5999999999999</v>
+      </c>
+      <c r="J62">
+        <v>4265.6000000000004</v>
+      </c>
+      <c r="K62">
+        <v>635.9</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4764.3999999999996</v>
+      </c>
+      <c r="O62">
+        <v>11661.3</v>
+      </c>
+      <c r="P62">
+        <v>6470.9</v>
+      </c>
+      <c r="Q62">
+        <v>-92</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>47145</v>
+      </c>
+      <c r="T62">
+        <v>6980.4</v>
+      </c>
+      <c r="U62">
+        <v>92.8</v>
+      </c>
+      <c r="V62">
+        <v>604.6</v>
+      </c>
+      <c r="W62">
+        <v>-99.1</v>
+      </c>
+      <c r="X62">
+        <v>-328.1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>230.8</v>
+      </c>
+      <c r="D63">
+        <v>3097.4</v>
+      </c>
+      <c r="E63">
+        <v>2248.8000000000002</v>
+      </c>
+      <c r="F63">
+        <v>1466</v>
+      </c>
+      <c r="G63">
+        <v>4194.8999999999996</v>
+      </c>
+      <c r="H63">
+        <v>18341.8</v>
+      </c>
+      <c r="I63">
+        <v>986.1</v>
+      </c>
+      <c r="J63">
+        <v>5082.8</v>
+      </c>
+      <c r="K63">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="L63">
+        <v>-329.6</v>
+      </c>
+      <c r="M63">
+        <v>-125.7</v>
+      </c>
+      <c r="N63">
+        <v>4159.5</v>
+      </c>
+      <c r="O63">
+        <v>11689.7</v>
+      </c>
+      <c r="P63">
+        <v>6839.4</v>
+      </c>
+      <c r="Q63">
+        <v>175.7</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6652.1</v>
+      </c>
+      <c r="U63">
+        <v>268.5</v>
+      </c>
+      <c r="V63">
+        <v>472.5</v>
+      </c>
+      <c r="W63">
+        <v>-108</v>
+      </c>
+      <c r="X63">
+        <v>-145.4</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>230.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="D64">
+        <v>3317.2</v>
+      </c>
+      <c r="E64">
+        <v>2318</v>
+      </c>
+      <c r="F64">
+        <v>1593.9</v>
+      </c>
+      <c r="G64">
+        <v>4095.4</v>
+      </c>
+      <c r="H64">
+        <v>18224.599999999999</v>
+      </c>
+      <c r="I64">
+        <v>977.8</v>
+      </c>
+      <c r="J64">
+        <v>5097</v>
+      </c>
+      <c r="K64">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4238.3999999999996</v>
+      </c>
+      <c r="O64">
+        <v>11555</v>
+      </c>
+      <c r="P64">
+        <v>6846.9</v>
+      </c>
+      <c r="Q64">
+        <v>-101.1</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6669.6</v>
+      </c>
+      <c r="U64">
+        <v>167.4</v>
+      </c>
+      <c r="V64">
+        <v>402.3</v>
+      </c>
+      <c r="W64">
+        <v>-109.6</v>
+      </c>
+      <c r="X64">
+        <v>-331.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>374.1</v>
+      </c>
+      <c r="D65">
+        <v>3386.1</v>
+      </c>
+      <c r="E65">
+        <v>2349.6</v>
+      </c>
+      <c r="F65">
+        <v>1648.9</v>
+      </c>
+      <c r="G65">
+        <v>4172</v>
+      </c>
+      <c r="H65">
+        <v>18378.8</v>
+      </c>
+      <c r="I65">
+        <v>1022.7</v>
+      </c>
+      <c r="J65">
+        <v>5091.3999999999996</v>
+      </c>
+      <c r="K65">
+        <v>114.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4174</v>
+      </c>
+      <c r="O65">
+        <v>11437</v>
+      </c>
+      <c r="P65">
+        <v>6662.6</v>
+      </c>
+      <c r="Q65">
+        <v>13.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6941.8</v>
+      </c>
+      <c r="U65">
+        <v>180.6</v>
+      </c>
+      <c r="V65">
+        <v>616.9</v>
+      </c>
+      <c r="W65">
+        <v>-106.9</v>
+      </c>
+      <c r="X65">
+        <v>-346.2</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>374.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>366.3</v>
+      </c>
+      <c r="D66">
+        <v>3352.1</v>
+      </c>
+      <c r="E66">
+        <v>2341.1999999999998</v>
+      </c>
+      <c r="F66">
+        <v>1611.1</v>
+      </c>
+      <c r="G66">
+        <v>4279.3999999999996</v>
+      </c>
+      <c r="H66">
+        <v>18330.2</v>
+      </c>
+      <c r="I66">
+        <v>983.2</v>
+      </c>
+      <c r="J66">
+        <v>6145.7</v>
+      </c>
+      <c r="K66">
+        <v>29.9</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3019.4</v>
+      </c>
+      <c r="O66">
+        <v>11359.3</v>
+      </c>
+      <c r="P66">
+        <v>6687</v>
+      </c>
+      <c r="Q66">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>47565</v>
+      </c>
+      <c r="T66">
+        <v>6970.9</v>
+      </c>
+      <c r="U66">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="V66">
+        <v>448</v>
+      </c>
+      <c r="W66">
+        <v>-103</v>
+      </c>
+      <c r="X66">
+        <v>-44.8</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>254</v>
+      </c>
+      <c r="D67">
+        <v>3162.4</v>
+      </c>
+      <c r="E67">
+        <v>2358</v>
+      </c>
+      <c r="F67">
+        <v>1312.1</v>
+      </c>
+      <c r="G67">
+        <v>4307.3</v>
+      </c>
+      <c r="H67">
+        <v>19223</v>
+      </c>
+      <c r="I67">
+        <v>1039.3</v>
+      </c>
+      <c r="J67">
+        <v>5846.8</v>
+      </c>
+      <c r="K67">
+        <v>890.1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.4</v>
+      </c>
+      <c r="N67">
+        <v>4205.3</v>
+      </c>
+      <c r="O67">
+        <v>12344.5</v>
+      </c>
+      <c r="P67">
+        <v>7546.2</v>
+      </c>
+      <c r="Q67">
+        <v>-168.3</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6878.5</v>
+      </c>
+      <c r="U67">
+        <v>212.1</v>
+      </c>
+      <c r="V67">
+        <v>425.7</v>
+      </c>
+      <c r="W67">
+        <v>-113.2</v>
+      </c>
+      <c r="X67">
+        <v>395.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>294.8</v>
+      </c>
+      <c r="D68">
+        <v>3460</v>
+      </c>
+      <c r="E68">
+        <v>2446.8000000000002</v>
+      </c>
+      <c r="F68">
+        <v>1439</v>
+      </c>
+      <c r="G68">
+        <v>4532.1000000000004</v>
+      </c>
+      <c r="H68">
+        <v>19523.400000000001</v>
+      </c>
+      <c r="I68">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="J68">
+        <v>5909.3</v>
+      </c>
+      <c r="K68">
+        <v>959.8</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4318.3999999999996</v>
+      </c>
+      <c r="O68">
+        <v>12534.7</v>
+      </c>
+      <c r="P68">
+        <v>7679.9</v>
+      </c>
+      <c r="Q68">
+        <v>48.6</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6988.7</v>
+      </c>
+      <c r="U68">
+        <v>260.7</v>
+      </c>
+      <c r="V68">
+        <v>434</v>
+      </c>
+      <c r="W68">
+        <v>-109.7</v>
+      </c>
+      <c r="X68">
+        <v>-169.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>393.2</v>
+      </c>
+      <c r="D69">
+        <v>3564.5</v>
+      </c>
+      <c r="E69">
+        <v>2533.1999999999998</v>
+      </c>
+      <c r="F69">
+        <v>1500.2</v>
+      </c>
+      <c r="G69">
+        <v>4614.5</v>
+      </c>
+      <c r="H69">
+        <v>19856.7</v>
+      </c>
+      <c r="I69">
+        <v>1115.9000000000001</v>
+      </c>
+      <c r="J69">
+        <v>6484.5</v>
+      </c>
+      <c r="K69">
+        <v>262.2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3756.6</v>
+      </c>
+      <c r="O69">
+        <v>12557.5</v>
+      </c>
+      <c r="P69">
+        <v>7557.5</v>
+      </c>
+      <c r="Q69">
+        <v>-51.6</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7299.2</v>
+      </c>
+      <c r="U69">
+        <v>209.1</v>
+      </c>
+      <c r="V69">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="W69">
+        <v>-107.4</v>
+      </c>
+      <c r="X69">
+        <v>-426.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>393.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>562.6</v>
+      </c>
+      <c r="D70">
+        <v>3649</v>
+      </c>
+      <c r="E70">
+        <v>2571.4</v>
+      </c>
+      <c r="F70">
+        <v>1564.4</v>
+      </c>
+      <c r="G70">
+        <v>4594.3</v>
+      </c>
+      <c r="H70">
+        <v>19963.5</v>
+      </c>
+      <c r="I70">
+        <v>1177.0999999999999</v>
+      </c>
+      <c r="J70">
+        <v>6758.3</v>
+      </c>
+      <c r="K70">
+        <v>14.7</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3475.2</v>
+      </c>
+      <c r="O70">
+        <v>12309.7</v>
+      </c>
+      <c r="P70">
+        <v>7322.7</v>
+      </c>
+      <c r="Q70">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>48400</v>
+      </c>
+      <c r="T70">
+        <v>7653.8</v>
+      </c>
+      <c r="U70">
+        <v>211.4</v>
+      </c>
+      <c r="V70">
+        <v>646.4</v>
+      </c>
+      <c r="W70">
+        <v>-118.4</v>
+      </c>
+      <c r="X70">
+        <v>-322.2</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>562.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>247.3</v>
+      </c>
+      <c r="D71">
+        <v>3470.9</v>
+      </c>
+      <c r="E71">
+        <v>2574.3000000000002</v>
+      </c>
+      <c r="F71">
+        <v>1398.6</v>
+      </c>
+      <c r="G71">
+        <v>4596.8</v>
+      </c>
+      <c r="H71">
+        <v>20184.3</v>
+      </c>
+      <c r="I71">
+        <v>1229.0999999999999</v>
+      </c>
+      <c r="J71">
+        <v>6397.7</v>
+      </c>
+      <c r="K71">
+        <v>372.1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-300.60000000000002</v>
+      </c>
+      <c r="N71">
+        <v>3982.8</v>
+      </c>
+      <c r="O71">
+        <v>12514.4</v>
+      </c>
+      <c r="P71">
+        <v>7415.5</v>
+      </c>
+      <c r="Q71">
+        <v>-35.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7669.9</v>
+      </c>
+      <c r="U71">
+        <v>175.5</v>
+      </c>
+      <c r="V71">
+        <v>487.2</v>
+      </c>
+      <c r="W71">
+        <v>-118.7</v>
+      </c>
+      <c r="X71">
+        <v>-265</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>247.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>351.3</v>
+      </c>
+      <c r="D72">
+        <v>3689.6</v>
+      </c>
+      <c r="E72">
+        <v>2635.4</v>
+      </c>
+      <c r="F72">
+        <v>1543.4</v>
+      </c>
+      <c r="G72">
+        <v>4607.8999999999996</v>
+      </c>
+      <c r="H72">
+        <v>19951.599999999999</v>
+      </c>
+      <c r="I72">
+        <v>1242.0999999999999</v>
+      </c>
+      <c r="J72">
+        <v>6343.1</v>
+      </c>
+      <c r="K72">
+        <v>227</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3623.8</v>
+      </c>
+      <c r="O72">
+        <v>12043.1</v>
+      </c>
+      <c r="P72">
+        <v>7217.6</v>
+      </c>
+      <c r="Q72">
+        <v>-121.3</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7908.5</v>
+      </c>
+      <c r="U72">
+        <v>54.2</v>
+      </c>
+      <c r="V72">
+        <v>298.5</v>
+      </c>
+      <c r="W72">
+        <v>-118.2</v>
+      </c>
+      <c r="X72">
+        <v>-241.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>351.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>435.4</v>
+      </c>
+      <c r="D73">
+        <v>3747.2</v>
+      </c>
+      <c r="E73">
+        <v>2652.7</v>
+      </c>
+      <c r="F73">
+        <v>1560.1</v>
+      </c>
+      <c r="G73">
+        <v>4822.3</v>
+      </c>
+      <c r="H73">
+        <v>19962.599999999999</v>
+      </c>
+      <c r="I73">
+        <v>1195.3</v>
+      </c>
+      <c r="J73">
+        <v>6334.8</v>
+      </c>
+      <c r="K73">
+        <v>119.7</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3589.8</v>
+      </c>
+      <c r="O73">
+        <v>11979.6</v>
+      </c>
+      <c r="P73">
+        <v>7104.2</v>
+      </c>
+      <c r="Q73">
+        <v>149.4</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7983</v>
+      </c>
+      <c r="U73">
+        <v>203.6</v>
+      </c>
+      <c r="V73">
+        <v>664.7</v>
+      </c>
+      <c r="W73">
+        <v>-118.5</v>
+      </c>
+      <c r="X73">
+        <v>-313</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>435.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>395.1</v>
+      </c>
+      <c r="D74">
+        <v>3760.5</v>
+      </c>
+      <c r="E74">
+        <v>2662.5</v>
+      </c>
+      <c r="F74">
+        <v>1549.5</v>
+      </c>
+      <c r="G74">
+        <v>4677.7</v>
+      </c>
+      <c r="H74">
+        <v>20074.5</v>
+      </c>
+      <c r="I74">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="J74">
+        <v>6295.4</v>
+      </c>
+      <c r="K74">
+        <v>342.2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3685.6</v>
+      </c>
+      <c r="O74">
+        <v>12020.9</v>
+      </c>
+      <c r="P74">
+        <v>7045.2</v>
+      </c>
+      <c r="Q74">
+        <v>90.4</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>49000</v>
+      </c>
+      <c r="T74">
+        <v>8053.6</v>
+      </c>
+      <c r="U74">
+        <v>114.7</v>
+      </c>
+      <c r="V74">
+        <v>827.3</v>
+      </c>
+      <c r="W74">
+        <v>-141.1</v>
+      </c>
+      <c r="X74">
+        <v>-353.2</v>
+      </c>
+      <c r="Y74">
+        <v>6.2</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>395.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>296.5</v>
+      </c>
+      <c r="D75">
+        <v>2924.7</v>
+      </c>
+      <c r="E75">
+        <v>2691.6</v>
+      </c>
+      <c r="F75">
+        <v>1252.8</v>
+      </c>
+      <c r="G75">
+        <v>4751</v>
+      </c>
+      <c r="H75">
+        <v>20927.599999999999</v>
+      </c>
+      <c r="I75">
+        <v>1237.7</v>
+      </c>
+      <c r="J75">
+        <v>6005.8</v>
+      </c>
+      <c r="K75">
+        <v>831.4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-400.3</v>
+      </c>
+      <c r="N75">
+        <v>4156</v>
+      </c>
+      <c r="O75">
+        <v>12660.7</v>
+      </c>
+      <c r="P75">
+        <v>7711.8</v>
+      </c>
+      <c r="Q75">
+        <v>-215</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8266.9</v>
+      </c>
+      <c r="U75">
+        <v>79</v>
+      </c>
+      <c r="V75">
+        <v>378.1</v>
+      </c>
+      <c r="W75">
+        <v>-132.4</v>
+      </c>
+      <c r="X75">
+        <v>-117.5</v>
+      </c>
+      <c r="Y75">
+        <v>414.6</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>3169.1</v>
+      </c>
+      <c r="E76">
+        <v>2747.1</v>
+      </c>
+      <c r="F76">
+        <v>1396.6</v>
+      </c>
+      <c r="G76">
+        <v>4853.5</v>
+      </c>
+      <c r="H76">
+        <v>20827.599999999999</v>
+      </c>
+      <c r="I76">
+        <v>1297.9000000000001</v>
+      </c>
+      <c r="J76">
+        <v>5987.1</v>
+      </c>
+      <c r="K76">
+        <v>768.8</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4127.7</v>
+      </c>
+      <c r="O76">
+        <v>12558.2</v>
+      </c>
+      <c r="P76">
+        <v>7606.4</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8269.4</v>
+      </c>
+      <c r="U76">
+        <v>85.7</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>398.6</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>368.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>464.2</v>
+      </c>
+      <c r="D77">
+        <v>3224</v>
+      </c>
+      <c r="E77">
+        <v>2722.5</v>
+      </c>
+      <c r="F77">
+        <v>1454.5</v>
+      </c>
+      <c r="G77">
+        <v>4870.1000000000004</v>
+      </c>
+      <c r="H77">
+        <v>20835.599999999999</v>
+      </c>
+      <c r="I77">
+        <v>1269.4000000000001</v>
+      </c>
+      <c r="J77">
+        <v>5966.9</v>
+      </c>
+      <c r="K77">
+        <v>478.4</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3919.5</v>
+      </c>
+      <c r="O77">
+        <v>12223.2</v>
+      </c>
+      <c r="P77">
+        <v>7316.6</v>
+      </c>
+      <c r="Q77">
+        <v>50.1</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8612.4</v>
+      </c>
+      <c r="U77">
+        <v>135.9</v>
+      </c>
+      <c r="V77">
+        <v>682.1</v>
+      </c>
+      <c r="W77">
+        <v>-152</v>
+      </c>
+      <c r="X77">
+        <v>-371.9</v>
+      </c>
+      <c r="Y77">
+        <v>418.9</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>464.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>429.6</v>
+      </c>
+      <c r="D78">
+        <v>3244.2</v>
+      </c>
+      <c r="E78">
+        <v>2382</v>
+      </c>
+      <c r="F78">
+        <v>1450.8</v>
+      </c>
+      <c r="G78">
+        <v>4828.3999999999996</v>
+      </c>
+      <c r="H78">
+        <v>20869.099999999999</v>
+      </c>
+      <c r="I78">
+        <v>1075.3</v>
+      </c>
+      <c r="J78">
+        <v>5970.1</v>
+      </c>
+      <c r="K78">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3630.6</v>
+      </c>
+      <c r="O78">
+        <v>12143.3</v>
+      </c>
+      <c r="P78">
+        <v>6821.7</v>
+      </c>
+      <c r="Q78">
+        <v>50.5</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>50200</v>
+      </c>
+      <c r="T78">
+        <v>8725.7999999999993</v>
+      </c>
+      <c r="U78">
+        <v>118.8</v>
+      </c>
+      <c r="V78">
+        <v>821</v>
+      </c>
+      <c r="W78">
+        <v>-136.80000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-502.1</v>
+      </c>
+      <c r="Y78">
+        <v>349</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>429.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="D79">
+        <v>3020.6</v>
+      </c>
+      <c r="E79">
+        <v>2855.9</v>
+      </c>
+      <c r="F79">
+        <v>1309.5</v>
+      </c>
+      <c r="G79">
+        <v>6437.1</v>
+      </c>
+      <c r="H79">
+        <v>22339.599999999999</v>
+      </c>
+      <c r="I79">
+        <v>1279.5</v>
+      </c>
+      <c r="J79">
+        <v>6739.7</v>
+      </c>
+      <c r="K79">
+        <v>1037.0999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-299.7</v>
+      </c>
+      <c r="N79">
+        <v>4257.3999999999996</v>
+      </c>
+      <c r="O79">
+        <v>13479</v>
+      </c>
+      <c r="P79">
+        <v>8341.7000000000007</v>
+      </c>
+      <c r="Q79">
+        <v>1475.5</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8860.6</v>
+      </c>
+      <c r="U79">
+        <v>1661.9</v>
+      </c>
+      <c r="V79">
+        <v>371.8</v>
+      </c>
+      <c r="W79">
+        <v>-135.5</v>
+      </c>
+      <c r="X79">
+        <v>1265.8</v>
+      </c>
+      <c r="Y79">
+        <v>411.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>283.39999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>2685.7</v>
+      </c>
+      <c r="E80">
+        <v>2255.5</v>
+      </c>
+      <c r="F80">
+        <v>1077</v>
+      </c>
+      <c r="G80">
+        <v>5166.2</v>
+      </c>
+      <c r="H80">
+        <v>18082.400000000001</v>
+      </c>
+      <c r="I80">
+        <v>1087.7</v>
+      </c>
+      <c r="J80">
+        <v>6749.1</v>
+      </c>
+      <c r="K80">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3227.7</v>
+      </c>
+      <c r="O80">
+        <v>12192.2</v>
+      </c>
+      <c r="P80">
+        <v>7729.1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5890.2</v>
+      </c>
+      <c r="U80">
+        <v>1369</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>322.3</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-2035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>246.2</v>
+      </c>
+      <c r="D81">
+        <v>3018.6</v>
+      </c>
+      <c r="E81">
+        <v>2320.6999999999998</v>
+      </c>
+      <c r="F81">
+        <v>1258.5</v>
+      </c>
+      <c r="G81">
+        <v>4992</v>
+      </c>
+      <c r="H81">
+        <v>18097.099999999999</v>
+      </c>
+      <c r="I81">
+        <v>1108.4000000000001</v>
+      </c>
+      <c r="J81">
+        <v>6661.3</v>
+      </c>
+      <c r="K81">
+        <v>245.7</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3106.4</v>
+      </c>
+      <c r="O81">
+        <v>12047.7</v>
+      </c>
+      <c r="P81">
+        <v>7350.1</v>
+      </c>
+      <c r="Q81">
+        <v>-401.9</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6049.4</v>
+      </c>
+      <c r="U81">
+        <v>1034.7</v>
+      </c>
+      <c r="V81">
+        <v>451.8</v>
+      </c>
+      <c r="W81">
+        <v>-150.30000000000001</v>
+      </c>
+      <c r="X81">
+        <v>-690.3</v>
+      </c>
+      <c r="Y81">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>246.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>300.3</v>
+      </c>
+      <c r="D82">
         <v>3065.3</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2273.8000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1287.5999999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5117.3999999999996</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>18126</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1160.5999999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6662.2</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>15.5</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2932.2</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11924.5</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7112.7</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>225.5</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>44000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6201.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1260.2</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>649.79999999999995</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-139</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-370.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>307.60000000000002</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>300.3</v>
       </c>
     </row>
